--- a/db/Listagem.xlsx
+++ b/db/Listagem.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="962" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="630" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="PRO" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="780">
   <si>
     <t>PLAQUETA</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Guilherme Willian da Silva Martinez</t>
   </si>
   <si>
+    <t>CAD</t>
+  </si>
+  <si>
     <t>48 km CADETE: 19 a 29 anos - Filiados e Não Filiados (Nasc. 1998 a 1988)</t>
   </si>
   <si>
@@ -154,12 +157,66 @@
     <t>raphaeladriano.cotta@gmail.com</t>
   </si>
   <si>
+    <t>PV8P-ZR-GT32</t>
+  </si>
+  <si>
+    <t>DANIEL TORRES</t>
+  </si>
+  <si>
+    <t>48Km / CADETE: 19 a 29 anos - Filiados e Não Filiados (Nasc. 1998 a 1988)</t>
+  </si>
+  <si>
+    <t>31/05/1996</t>
+  </si>
+  <si>
+    <t>134.659.466-00</t>
+  </si>
+  <si>
+    <t>Belo Horizonte / MG</t>
+  </si>
+  <si>
+    <t>31-99525-7442</t>
+  </si>
+  <si>
+    <t>d45788@gmail.com</t>
+  </si>
+  <si>
+    <t>PV6N-YN-VE6J</t>
+  </si>
+  <si>
+    <t>RAINE SOUZA BRUNO ALEXANDRINO SOUZA</t>
+  </si>
+  <si>
+    <t>feminino</t>
+  </si>
+  <si>
+    <t>06/02/1995</t>
+  </si>
+  <si>
+    <t>135.815.906-89</t>
+  </si>
+  <si>
+    <t>CONTAGEM/MG</t>
+  </si>
+  <si>
+    <t>31-99376-3611</t>
+  </si>
+  <si>
+    <t>jadersonvendas@hotmail.com</t>
+  </si>
+  <si>
+    <t>CYCLOPS TEAM</t>
+  </si>
+  <si>
     <t>FMC-LS17-0046</t>
   </si>
   <si>
     <t>ALEXANDER GONÇALVES DE JESUS</t>
   </si>
   <si>
+    <t>EM</t>
+  </si>
+  <si>
     <t>48 km ELITE MASCULINA: 19 anos e acima - Filiados (Nasc. 1998 e anos anteriores)</t>
   </si>
   <si>
@@ -181,6 +238,9 @@
     <t>Vanessa de Almeida Resende</t>
   </si>
   <si>
+    <t>FM30</t>
+  </si>
+  <si>
     <t>48 km FEMININA MASTER 30+: 30 anos e acima - Filiadas e Não Filiadas (Nasc. em 1987 e anos anteriores)</t>
   </si>
   <si>
@@ -196,63 +256,15 @@
     <t>vanessa.resende@hotmail.com</t>
   </si>
   <si>
-    <t>PV8P-ZR-GT32</t>
-  </si>
-  <si>
-    <t>DANIEL TORRES</t>
-  </si>
-  <si>
-    <t>48Km / CADETE: 19 a 29 anos - Filiados e Não Filiados (Nasc. 1998 a 1988)</t>
-  </si>
-  <si>
-    <t>31/05/1996</t>
-  </si>
-  <si>
-    <t>134.659.466-00</t>
-  </si>
-  <si>
-    <t>Belo Horizonte / MG</t>
-  </si>
-  <si>
-    <t>31-99525-7442</t>
-  </si>
-  <si>
-    <t>d45788@gmail.com</t>
-  </si>
-  <si>
-    <t>PV6N-YN-VE6J</t>
-  </si>
-  <si>
-    <t>RAINE SOUZA BRUNO ALEXANDRINO SOUZA</t>
-  </si>
-  <si>
-    <t>feminino</t>
-  </si>
-  <si>
-    <t>06/02/1995</t>
-  </si>
-  <si>
-    <t>135.815.906-89</t>
-  </si>
-  <si>
-    <t>CONTAGEM/MG</t>
-  </si>
-  <si>
-    <t>31-99376-3611</t>
-  </si>
-  <si>
-    <t>jadersonvendas@hotmail.com</t>
-  </si>
-  <si>
-    <t>CYCLOPS TEAM</t>
-  </si>
-  <si>
     <t>PX6E-E1-9TN4</t>
   </si>
   <si>
     <t>Juliana Vilaça Bastos</t>
   </si>
   <si>
+    <t>FM31</t>
+  </si>
+  <si>
     <t>48Km / FEMININA MASTER 30 +: 30 anos e acima - Filiadas e Não Filiadas (Nasc. em 1987 e anos anteriores)</t>
   </si>
   <si>
@@ -280,6 +292,9 @@
     <t>Carlos Henrique Clark</t>
   </si>
   <si>
+    <t>MA1</t>
+  </si>
+  <si>
     <t>48Km / MASTER A1: 30 a 34 anos - Filiados e Não Filiados (Nasc. 1987 a 1983)</t>
   </si>
   <si>
@@ -529,6 +544,9 @@
     <t>Carlos Eduardo Soares</t>
   </si>
   <si>
+    <t>MA2</t>
+  </si>
+  <si>
     <t>48Km / MASTER A2: 35 a 39 anos - Filiados e Não Filiados (Nasc. 1982 a 1978)</t>
   </si>
   <si>
@@ -895,6 +913,9 @@
     <t>Alberto Schaper</t>
   </si>
   <si>
+    <t>MB1</t>
+  </si>
+  <si>
     <t>48Km / MASTER B1: 40 a 44 anos - Filiados e Não Filiados (Nasc. 1977 a 1973)</t>
   </si>
   <si>
@@ -1132,6 +1153,9 @@
     <t>Aguinaldo Eufrásio</t>
   </si>
   <si>
+    <t>MB2</t>
+  </si>
+  <si>
     <t>48Km / MASTER B2: 45 a 49 anos - Filiados e Não Filiados (Nasc. 1972 a 1968)</t>
   </si>
   <si>
@@ -1225,6 +1249,9 @@
     <t>Paulo Henrique Cardoso Maia</t>
   </si>
   <si>
+    <t>S30</t>
+  </si>
+  <si>
     <t>48Km / SUB 30: 23 a 29 anos - Filiados (Nasc. 1994 a 1988)</t>
   </si>
   <si>
@@ -1294,6 +1321,9 @@
     <t>MILTON FERREIRA MARTINS</t>
   </si>
   <si>
+    <t>MC</t>
+  </si>
+  <si>
     <t>30 km MASTER C: 50 a 54 anos - Filiados e Não Filiados (Nasc. 1967 a 1963)</t>
   </si>
   <si>
@@ -1309,6 +1339,9 @@
     <t>Rogerio Fagundes         ....roy</t>
   </si>
   <si>
+    <t>MD</t>
+  </si>
+  <si>
     <t>30 km MASTER D: 55 anos e acima - Filiados e Não Filiados (Nasc. 1962 e anos anteriores)</t>
   </si>
   <si>
@@ -1330,6 +1363,9 @@
     <t>ANA CLAUDIA FIRMIANO</t>
   </si>
   <si>
+    <t>PNE</t>
+  </si>
+  <si>
     <t>30 km P.N.E. (Portadores de Necessidades Especiais)</t>
   </si>
   <si>
@@ -1390,6 +1426,9 @@
     <t>Ana Paula Silva Teixeira</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>30Km / SPORT FEMININA: 17 anos e acima (Nasc. 2000 e anos anteriores)</t>
   </si>
   <si>
@@ -1591,6 +1630,9 @@
     <t>JOÃO PAULO DE VASCONCELOS JUNIOR</t>
   </si>
   <si>
+    <t>SMA</t>
+  </si>
+  <si>
     <t>30Km / SPORT MASCULINA A: 17 a 34 anos (Nasc. 2000 a 1983)</t>
   </si>
   <si>
@@ -1828,6 +1870,9 @@
     <t>Alexandre Augusto de Sousa</t>
   </si>
   <si>
+    <t>SMB</t>
+  </si>
+  <si>
     <t>30Km / SPORT MASCULINA B: 35 anos e acima (Nasc. 1982 e anos anteriores)</t>
   </si>
   <si>
@@ -2200,6 +2245,9 @@
     <t>daniel uchoa costa</t>
   </si>
   <si>
+    <t>TRE</t>
+  </si>
+  <si>
     <t>30Km / T-REX: atletas com mais de 100 Kg, com peso comprovado</t>
   </si>
   <si>
@@ -2276,6 +2324,9 @@
   </si>
   <si>
     <t>Thais Oliveira</t>
+  </si>
+  <si>
+    <t>DMI</t>
   </si>
   <si>
     <t>DUPLA MISTA 30 km: 19 anos e acima (Nasc. 1998 e anos anteriores)</t>
@@ -2525,7 +2576,7 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2581,7 +2632,7 @@
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Explanatory Text" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Explanatory Text" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2651,12 +2702,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U65"/>
+  <dimension ref="A1:U65536"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="H1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" xSplit="0" ySplit="1"/>
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-      <selection activeCell="C3" activeCellId="0" pane="bottomLeft" sqref="C3"/>
+      <selection activeCell="H1" activeCellId="0" pane="topLeft" sqref="H1"/>
+      <selection activeCell="H62" activeCellId="0" pane="bottomLeft" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19"/>
@@ -2750,7 +2801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="2">
       <c r="A2" s="1" t="n">
         <v>41</v>
       </c>
@@ -2776,12 +2827,11 @@
       <c r="H2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="17" t="n">
-        <f aca="false">VLOOKUP(J2,Plan1!$A$1:$B$19,2)</f>
-        <v>18</v>
+      <c r="I2" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="18"/>
       <c r="L2" s="15" t="n">
@@ -2789,27 +2839,27 @@
         <v>1</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O3)/365.25</f>
         <v>28.8213552361396</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" s="16" t="n">
         <v>10370031601</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R2" s="22"/>
       <c r="S2" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U2" s="22"/>
     </row>
@@ -2834,17 +2884,16 @@
         <v>2</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="17" t="n">
-        <f aca="false">VLOOKUP(J3,Plan1!$A$1:$B$19,2)</f>
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="18"/>
       <c r="L3" s="15" t="n">
@@ -2852,31 +2901,31 @@
         <v>1</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N3" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O2)/365.25</f>
         <v>28.4900752908966</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P3" s="16" t="n">
         <v>9955115602</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R3" s="22"/>
       <c r="S3" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U3" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="4">
       <c r="A4" s="1" t="n">
         <v>73</v>
       </c>
@@ -2897,17 +2946,16 @@
         <v>3</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="17" t="n">
-        <f aca="false">VLOOKUP(J4,Plan1!$A$1:$B$19,2)</f>
-        <v>18</v>
+        <v>37</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="15" t="n">
@@ -2915,31 +2963,31 @@
         <v>1</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N4" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O4)/365.25</f>
         <v>28.8542094455852</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P4" s="16" t="n">
         <v>8672267656</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4" s="22"/>
       <c r="S4" s="16" t="n">
         <v>3198274494</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U4" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="5">
       <c r="A5" s="1" t="n">
         <v>96</v>
       </c>
@@ -2960,17 +3008,16 @@
         <v>4</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="17" t="n">
-        <f aca="false">VLOOKUP(J5,Plan1!$A$1:$B$19,2)</f>
-        <v>18</v>
+        <v>42</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="15" t="n">
@@ -2978,285 +3025,281 @@
         <v>1</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N5" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O5)/365.25</f>
         <v>28.9582477754962</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P5" s="16" t="n">
         <v>8665364692</v>
       </c>
       <c r="Q5" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R5" s="22"/>
       <c r="S5" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U5" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>32.4388888888889</v>
+        <v>44.4583333333333</v>
       </c>
       <c r="D6" s="3" t="n">
         <f aca="false">C6-B6</f>
-        <v>32.0638888888889</v>
+        <v>44.0833333333333</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="17" t="n">
-        <f aca="false">VLOOKUP(J6,Plan1!$A$1:$B$19,2)</f>
-        <v>19</v>
-      </c>
-      <c r="J6" s="18" t="s">
+      <c r="H6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="18"/>
+      <c r="I6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="24"/>
       <c r="L6" s="15" t="n">
         <f aca="false">VLOOKUP(M6,Plan1!$E$1:$F$2,2,0)</f>
         <v>1</v>
       </c>
-      <c r="M6" s="19" t="s">
-        <v>24</v>
+      <c r="M6" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="N6" s="20" t="n">
-        <f aca="false">(Plan1!$E$5-PRO!O6)/365.25</f>
-        <v>22.2012320328542</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" s="16" t="n">
-        <v>12278381660</v>
-      </c>
-      <c r="Q6" s="16" t="s">
+        <f aca="false">(Plan1!$E$5-PRO!O29)/365.25</f>
+        <v>37.6536618754278</v>
+      </c>
+      <c r="O6" s="23" t="s">
         <v>49</v>
       </c>
+      <c r="P6" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="R6" s="22"/>
-      <c r="S6" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="T6" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="U6" s="22"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="7">
+      <c r="S6" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="U6" s="24"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="7">
       <c r="A7" s="1" t="n">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>32.4361111111111</v>
+        <v>44.4583333333333</v>
       </c>
       <c r="D7" s="3" t="n">
         <f aca="false">C7-B7</f>
-        <v>32.0611111111111</v>
+        <v>44.0833333333333</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="17" t="n">
-        <f aca="false">VLOOKUP(J7,Plan1!$A$1:$B$19,2)</f>
-        <v>20</v>
-      </c>
-      <c r="J7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K7" s="18"/>
+      <c r="H7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="24"/>
       <c r="L7" s="15" t="n">
         <f aca="false">VLOOKUP(M7,Plan1!$E$1:$F$2,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M7" s="19" t="s">
-        <v>55</v>
+      <c r="M7" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="N7" s="20" t="n">
-        <f aca="false">(Plan1!$E$5-PRO!O7)/365.25</f>
-        <v>36.2573579739904</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="P7" s="16" t="n">
-        <v>1261424670</v>
-      </c>
-      <c r="Q7" s="16" t="s">
+        <f aca="false">(Plan1!$E$5-PRO!O28)/365.25</f>
+        <v>35.6714579055441</v>
+      </c>
+      <c r="O7" s="23" t="s">
         <v>57</v>
       </c>
+      <c r="P7" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>59</v>
+      </c>
       <c r="R7" s="22"/>
-      <c r="S7" s="16" t="n">
-        <v>3799129191</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="U7" s="22"/>
+      <c r="S7" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="T7" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="U7" s="24" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="8">
       <c r="A8" s="1" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>44.4583333333333</v>
+        <v>32.4388888888889</v>
       </c>
       <c r="D8" s="3" t="n">
         <f aca="false">C8-B8</f>
-        <v>44.0833333333333</v>
+        <v>32.0638888888889</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="17" t="n">
-        <f aca="false">VLOOKUP(J8,Plan1!$A$1:$B$19,2)</f>
-        <v>20</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="24"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="18"/>
       <c r="L8" s="15" t="n">
         <f aca="false">VLOOKUP(M8,Plan1!$E$1:$F$2,2,0)</f>
         <v>1</v>
       </c>
-      <c r="M8" s="22" t="s">
-        <v>24</v>
+      <c r="M8" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="N8" s="20" t="n">
-        <f aca="false">(Plan1!$E$5-PRO!O33)/365.25</f>
-        <v>36.7720739219713</v>
-      </c>
-      <c r="O8" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q8" s="24" t="s">
-        <v>64</v>
+        <f aca="false">(Plan1!$E$5-PRO!O8)/365.25</f>
+        <v>22.2012320328542</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="16" t="n">
+        <v>12278381660</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="R8" s="22"/>
-      <c r="S8" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="T8" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="U8" s="24"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="9">
+      <c r="S8" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="U8" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="9">
       <c r="A9" s="1" t="n">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>0.375</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>44.4583333333333</v>
+        <v>32.4361111111111</v>
       </c>
       <c r="D9" s="3" t="n">
         <f aca="false">C9-B9</f>
-        <v>44.0833333333333</v>
+        <v>32.0611111111111</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="17" t="n">
-        <f aca="false">VLOOKUP(J9,Plan1!$A$1:$B$19,2)</f>
-        <v>20</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" s="24"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="18"/>
       <c r="L9" s="15" t="n">
         <f aca="false">VLOOKUP(M9,Plan1!$E$1:$F$2,2,0)</f>
         <v>2</v>
       </c>
-      <c r="M9" s="22" t="s">
-        <v>69</v>
+      <c r="M9" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="N9" s="20" t="n">
-        <f aca="false">(Plan1!$E$5-PRO!O32)/365.25</f>
-        <v>39.6084873374401</v>
-      </c>
-      <c r="O9" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q9" s="24" t="s">
-        <v>72</v>
+        <f aca="false">(Plan1!$E$5-PRO!O9)/365.25</f>
+        <v>36.2573579739904</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="16" t="n">
+        <v>1261424670</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="R9" s="22"/>
-      <c r="S9" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="T9" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="U9" s="24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="10">
+      <c r="S9" s="16" t="n">
+        <v>3799129191</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="U9" s="22"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="10">
       <c r="A10" s="1" t="n">
         <v>58</v>
       </c>
@@ -3277,17 +3320,16 @@
         <v>4</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="17" t="n">
-        <f aca="false">VLOOKUP(J10,Plan1!$A$1:$B$19,2)</f>
-        <v>20</v>
+        <v>80</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="15" t="n">
@@ -3295,33 +3337,33 @@
         <v>2</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="N10" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O34)/365.25</f>
         <v>39.6084873374401</v>
       </c>
       <c r="O10" s="23" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P10" s="24" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="24" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="R10" s="22"/>
       <c r="S10" s="24" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="T10" s="24" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="U10" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="11">
+        <v>88</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="11">
       <c r="A11" s="1" t="n">
         <v>20</v>
       </c>
@@ -3342,17 +3384,16 @@
         <v>1</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="I11" s="17" t="n">
-        <f aca="false">VLOOKUP(J11,Plan1!$A$1:$B$19,2)</f>
-        <v>21</v>
+        <v>90</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K11" s="24"/>
       <c r="L11" s="15" t="n">
@@ -3360,31 +3401,33 @@
         <v>1</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="20" t="n">
-        <f aca="false">(Plan1!$E$5-PRO!O8)/365.25</f>
-        <v>21.5852156057495</v>
+        <v>25</v>
+      </c>
+      <c r="N11" s="20" t="inlineStr">
+        <f aca="false">(Plan1!$E$5-PRO!#REF!)/365.25</f>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O11" s="21" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P11" s="16" t="n">
         <v>8339644610</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="R11" s="22"/>
       <c r="S11" s="16" t="n">
         <v>31982463513</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="U11" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="12">
       <c r="A12" s="1" t="n">
         <v>29</v>
       </c>
@@ -3405,17 +3448,16 @@
         <v>2</v>
       </c>
       <c r="G12" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="J12" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="I12" s="17" t="n">
-        <f aca="false">VLOOKUP(J12,Plan1!$A$1:$B$19,2)</f>
-        <v>21</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>87</v>
       </c>
       <c r="K12" s="24"/>
       <c r="L12" s="15" t="n">
@@ -3423,31 +3465,33 @@
         <v>1</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="20" t="n">
-        <f aca="false">(Plan1!$E$5-PRO!O9)/365.25</f>
-        <v>22.8993839835729</v>
+        <v>25</v>
+      </c>
+      <c r="N12" s="20" t="inlineStr">
+        <f aca="false">(Plan1!$E$5-PRO!#REF!)/365.25</f>
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="O12" s="21" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="P12" s="16" t="n">
         <v>1472436610</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="R12" s="22"/>
       <c r="S12" s="16" t="n">
         <v>87166655</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="U12" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="13">
       <c r="A13" s="1" t="n">
         <v>107</v>
       </c>
@@ -3468,17 +3512,16 @@
         <v>3</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" s="17" t="n">
-        <f aca="false">VLOOKUP(J13,Plan1!$A$1:$B$19,2)</f>
-        <v>21</v>
+        <v>102</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K13" s="24"/>
       <c r="L13" s="15" t="n">
@@ -3486,31 +3529,31 @@
         <v>1</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N13" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O11)/365.25</f>
         <v>31.9616700889801</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="P13" s="16" t="n">
         <v>6365550626</v>
       </c>
       <c r="Q13" s="16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="R13" s="22"/>
       <c r="S13" s="16" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="T13" s="16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="U13" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="14">
       <c r="A14" s="1" t="n">
         <v>88</v>
       </c>
@@ -3531,17 +3574,16 @@
         <v>4</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="I14" s="17" t="n">
-        <f aca="false">VLOOKUP(J14,Plan1!$A$1:$B$19,2)</f>
-        <v>21</v>
+        <v>107</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="15" t="n">
@@ -3549,31 +3591,31 @@
         <v>1</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N14" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O10)/365.25</f>
         <v>37.09787816564</v>
       </c>
       <c r="O14" s="21" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="P14" s="16" t="n">
         <v>6949794657</v>
       </c>
       <c r="Q14" s="16" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="R14" s="22"/>
       <c r="S14" s="16" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="T14" s="16" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="U14" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="15">
       <c r="A15" s="1" t="n">
         <v>119</v>
       </c>
@@ -3594,17 +3636,16 @@
         <v>5</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="I15" s="17" t="n">
-        <f aca="false">VLOOKUP(J15,Plan1!$A$1:$B$19,2)</f>
-        <v>21</v>
+        <v>113</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K15" s="24"/>
       <c r="L15" s="15" t="n">
@@ -3612,31 +3653,31 @@
         <v>1</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N15" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O12)/365.25</f>
         <v>33.5414099931554</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="P15" s="16" t="n">
         <v>7461841661</v>
       </c>
       <c r="Q15" s="16" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="R15" s="22"/>
       <c r="S15" s="16" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="T15" s="16" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="U15" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="16">
       <c r="A16" s="1" t="n">
         <v>120</v>
       </c>
@@ -3657,17 +3698,16 @@
         <v>6</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="I16" s="17" t="n">
-        <f aca="false">VLOOKUP(J16,Plan1!$A$1:$B$19,2)</f>
-        <v>21</v>
+        <v>119</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K16" s="24"/>
       <c r="L16" s="15" t="n">
@@ -3675,31 +3715,31 @@
         <v>1</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N16" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O13)/365.25</f>
         <v>34.0588637919233</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P16" s="16" t="n">
         <v>1454158646</v>
       </c>
       <c r="Q16" s="16" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="R16" s="22"/>
       <c r="S16" s="16" t="n">
         <v>37991910321</v>
       </c>
       <c r="T16" s="16" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="U16" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="17">
       <c r="A17" s="1" t="n">
         <v>49</v>
       </c>
@@ -3720,17 +3760,16 @@
         <v>7</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="I17" s="17" t="n">
-        <f aca="false">VLOOKUP(J17,Plan1!$A$1:$B$19,2)</f>
-        <v>21</v>
+        <v>124</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="15" t="n">
@@ -3738,33 +3777,33 @@
         <v>1</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N17" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O35)/365.25</f>
         <v>38.2203969883641</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q17" s="24" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="R17" s="22"/>
       <c r="S17" s="24" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="T17" s="24" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="U17" s="24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="18">
+        <v>62</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="18">
       <c r="A18" s="1" t="n">
         <v>18</v>
       </c>
@@ -3785,17 +3824,16 @@
         <v>8</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="I18" s="17" t="n">
-        <f aca="false">VLOOKUP(J18,Plan1!$A$1:$B$19,2)</f>
-        <v>21</v>
+        <v>132</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K18" s="24"/>
       <c r="L18" s="15" t="n">
@@ -3803,7 +3841,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N18" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O37)/365.25</f>
@@ -3813,23 +3851,23 @@
         <v>30360</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="24" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="R18" s="22"/>
       <c r="S18" s="24" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="T18" s="24" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="U18" s="24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="19">
+        <v>137</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="19">
       <c r="A19" s="1" t="n">
         <v>51</v>
       </c>
@@ -3850,17 +3888,16 @@
         <v>9</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="I19" s="17" t="n">
-        <f aca="false">VLOOKUP(J19,Plan1!$A$1:$B$19,2)</f>
-        <v>21</v>
+        <v>139</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K19" s="24"/>
       <c r="L19" s="15" t="n">
@@ -3868,33 +3905,33 @@
         <v>1</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N19" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O36)/365.25</f>
         <v>39.6084873374401</v>
       </c>
       <c r="O19" s="23" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P19" s="24" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="24" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="R19" s="22"/>
       <c r="S19" s="24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="T19" s="24" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="U19" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="20">
+        <v>145</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="20">
       <c r="A20" s="1" t="n">
         <v>121</v>
       </c>
@@ -3915,17 +3952,16 @@
         <v>10</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="I20" s="17" t="n">
-        <f aca="false">VLOOKUP(J20,Plan1!$A$1:$B$19,2)</f>
-        <v>21</v>
+        <v>119</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K20" s="24"/>
       <c r="L20" s="15" t="n">
@@ -3933,33 +3969,33 @@
         <v>1</v>
       </c>
       <c r="M20" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N20" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O39)/365.25</f>
         <v>39.2881587953457</v>
       </c>
       <c r="O20" s="23" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="P20" s="24" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="24" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="R20" s="22"/>
       <c r="S20" s="24" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="T20" s="24" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="U20" s="24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="21">
+        <v>150</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="21">
       <c r="A21" s="1" t="n">
         <v>109</v>
       </c>
@@ -3980,17 +4016,16 @@
         <v>11</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="I21" s="17" t="n">
-        <f aca="false">VLOOKUP(J21,Plan1!$A$1:$B$19,2)</f>
-        <v>21</v>
+        <v>152</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K21" s="24"/>
       <c r="L21" s="15" t="n">
@@ -3998,31 +4033,31 @@
         <v>1</v>
       </c>
       <c r="M21" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N21" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O38)/365.25</f>
         <v>37.2731006160164</v>
       </c>
       <c r="O21" s="23" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P21" s="24" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q21" s="24" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="R21" s="22"/>
       <c r="S21" s="24" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="T21" s="24" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="U21" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="22">
       <c r="A22" s="1" t="n">
         <v>13</v>
       </c>
@@ -4043,17 +4078,16 @@
         <v>12</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="I22" s="17" t="n">
-        <f aca="false">VLOOKUP(J22,Plan1!$A$1:$B$19,2)</f>
-        <v>21</v>
+        <v>159</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K22" s="24"/>
       <c r="L22" s="15" t="n">
@@ -4061,33 +4095,33 @@
         <v>1</v>
       </c>
       <c r="M22" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N22" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O40)/365.25</f>
         <v>37.9438740588638</v>
       </c>
       <c r="O22" s="23" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="P22" s="24" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q22" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R22" s="22"/>
       <c r="S22" s="24" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="T22" s="24" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="U22" s="24" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="23">
+        <v>164</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="23">
       <c r="A23" s="1" t="n">
         <v>23</v>
       </c>
@@ -4108,17 +4142,16 @@
         <v>13</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="I23" s="17" t="n">
-        <f aca="false">VLOOKUP(J23,Plan1!$A$1:$B$19,2)</f>
-        <v>21</v>
+        <v>166</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K23" s="24"/>
       <c r="L23" s="15" t="n">
@@ -4126,30 +4159,30 @@
         <v>1</v>
       </c>
       <c r="M23" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N23" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O41)/365.25</f>
         <v>39.6522929500342</v>
       </c>
       <c r="O23" s="23" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="P23" s="24" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="24" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="R23" s="22"/>
       <c r="S23" s="24" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="T23" s="24" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="U23" s="24" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="24">
@@ -4173,17 +4206,16 @@
         <v>1</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="I24" s="17" t="n">
-        <f aca="false">VLOOKUP(J24,Plan1!$A$1:$B$19,2)</f>
-        <v>22</v>
+        <v>174</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K24" s="24"/>
       <c r="L24" s="15" t="n">
@@ -4191,31 +4223,31 @@
         <v>1</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N24" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O15)/365.25</f>
         <v>32.7118412046543</v>
       </c>
       <c r="O24" s="21" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="P24" s="16" t="n">
         <v>5167792657</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="R24" s="22"/>
       <c r="S24" s="16" t="n">
         <v>84053643</v>
       </c>
       <c r="T24" s="16" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="U24" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="25">
       <c r="A25" s="1" t="n">
         <v>15</v>
       </c>
@@ -4236,17 +4268,16 @@
         <v>2</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H25" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="I25" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="I25" s="17" t="n">
-        <f aca="false">VLOOKUP(J25,Plan1!$A$1:$B$19,2)</f>
-        <v>22</v>
-      </c>
       <c r="J25" s="24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K25" s="24"/>
       <c r="L25" s="15" t="n">
@@ -4254,31 +4285,31 @@
         <v>1</v>
       </c>
       <c r="M25" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N25" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O14)/365.25</f>
         <v>32.1259411362081</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P25" s="16" t="n">
         <v>4344849620</v>
       </c>
       <c r="Q25" s="16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="R25" s="22"/>
       <c r="S25" s="16" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="T25" s="16" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="U25" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="26">
       <c r="A26" s="1" t="n">
         <v>56</v>
       </c>
@@ -4299,17 +4330,16 @@
         <v>3</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="I26" s="17" t="n">
-        <f aca="false">VLOOKUP(J26,Plan1!$A$1:$B$19,2)</f>
-        <v>22</v>
+        <v>186</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K26" s="24"/>
       <c r="L26" s="15" t="n">
@@ -4317,31 +4347,31 @@
         <v>1</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N26" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O16)/365.25</f>
         <v>34.6584531143053</v>
       </c>
       <c r="O26" s="21" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="P26" s="16" t="n">
         <v>4369830605</v>
       </c>
       <c r="Q26" s="16" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="R26" s="22"/>
       <c r="S26" s="16" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="T26" s="16" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="U26" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="27">
       <c r="A27" s="1" t="n">
         <v>70</v>
       </c>
@@ -4362,17 +4392,16 @@
         <v>4</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="I27" s="17" t="n">
-        <f aca="false">VLOOKUP(J27,Plan1!$A$1:$B$19,2)</f>
-        <v>22</v>
+        <v>192</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K27" s="24"/>
       <c r="L27" s="15" t="n">
@@ -4380,31 +4409,31 @@
         <v>1</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N27" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O17)/365.25</f>
         <v>32.6707734428474</v>
       </c>
       <c r="O27" s="21" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="P27" s="16" t="n">
         <v>1348918640</v>
       </c>
       <c r="Q27" s="16" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="R27" s="22"/>
       <c r="S27" s="16" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="T27" s="16" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="U27" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="28">
       <c r="A28" s="1" t="n">
         <v>82</v>
       </c>
@@ -4425,17 +4454,16 @@
         <v>5</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="I28" s="17" t="n">
-        <f aca="false">VLOOKUP(J28,Plan1!$A$1:$B$19,2)</f>
-        <v>22</v>
+        <v>198</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K28" s="24"/>
       <c r="L28" s="15" t="n">
@@ -4443,31 +4471,31 @@
         <v>1</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N28" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O19)/365.25</f>
         <v>34.9787816563997</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="P28" s="16" t="n">
         <v>5157787618</v>
       </c>
       <c r="Q28" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R28" s="22"/>
       <c r="S28" s="16" t="n">
         <v>3195597604</v>
       </c>
       <c r="T28" s="16" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="U28" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="29">
       <c r="A29" s="1" t="n">
         <v>68</v>
       </c>
@@ -4488,17 +4516,16 @@
         <v>6</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="I29" s="17" t="n">
-        <f aca="false">VLOOKUP(J29,Plan1!$A$1:$B$19,2)</f>
-        <v>22</v>
+        <v>202</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K29" s="24"/>
       <c r="L29" s="15" t="n">
@@ -4506,31 +4533,31 @@
         <v>1</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N29" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O18)/365.25</f>
         <v>34.880219028063</v>
       </c>
       <c r="O29" s="21" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P29" s="16" t="n">
         <v>3687276619</v>
       </c>
       <c r="Q29" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R29" s="22"/>
       <c r="S29" s="16" t="n">
         <v>3195159027</v>
       </c>
       <c r="T29" s="16" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="U29" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="30">
       <c r="A30" s="1" t="n">
         <v>102</v>
       </c>
@@ -4551,17 +4578,16 @@
         <v>7</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="I30" s="17" t="n">
-        <f aca="false">VLOOKUP(J30,Plan1!$A$1:$B$19,2)</f>
-        <v>22</v>
+        <v>206</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K30" s="24"/>
       <c r="L30" s="15" t="n">
@@ -4569,31 +4595,31 @@
         <v>1</v>
       </c>
       <c r="M30" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N30" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O20)/365.25</f>
         <v>34.6584531143053</v>
       </c>
       <c r="O30" s="21" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="P30" s="16" t="n">
         <v>5828990608</v>
       </c>
       <c r="Q30" s="16" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="R30" s="22"/>
       <c r="S30" s="16" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="T30" s="16" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="U30" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="31">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="31">
       <c r="A31" s="1" t="n">
         <v>105</v>
       </c>
@@ -4614,17 +4640,16 @@
         <v>8</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="I31" s="17" t="n">
-        <f aca="false">VLOOKUP(J31,Plan1!$A$1:$B$19,2)</f>
-        <v>22</v>
+        <v>211</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K31" s="24"/>
       <c r="L31" s="15" t="n">
@@ -4632,31 +4657,31 @@
         <v>1</v>
       </c>
       <c r="M31" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N31" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O21)/365.25</f>
         <v>32.1670088980151</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="P31" s="16" t="n">
         <v>3688340698</v>
       </c>
       <c r="Q31" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R31" s="22"/>
       <c r="S31" s="16" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="T31" s="16" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="U31" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="32">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="32">
       <c r="A32" s="1" t="n">
         <v>124</v>
       </c>
@@ -4677,17 +4702,16 @@
         <v>9</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="I32" s="17" t="n">
-        <f aca="false">VLOOKUP(J32,Plan1!$A$1:$B$19,2)</f>
-        <v>22</v>
+        <v>216</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="J32" s="24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K32" s="24"/>
       <c r="L32" s="15" t="n">
@@ -4695,31 +4719,31 @@
         <v>1</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N32" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O22)/365.25</f>
         <v>31.6440793976728</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="P32" s="16" t="n">
         <v>3843215693</v>
       </c>
       <c r="Q32" s="16" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="R32" s="22"/>
       <c r="S32" s="16" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="T32" s="16" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="U32" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="33">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="33">
       <c r="A33" s="1" t="n">
         <v>72</v>
       </c>
@@ -4740,17 +4764,16 @@
         <v>10</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="I33" s="17" t="n">
-        <f aca="false">VLOOKUP(J33,Plan1!$A$1:$B$19,2)</f>
-        <v>22</v>
+        <v>222</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K33" s="24"/>
       <c r="L33" s="15" t="n">
@@ -4758,33 +4781,33 @@
         <v>1</v>
       </c>
       <c r="M33" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N33" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O43)/365.25</f>
         <v>36.6488706365503</v>
       </c>
       <c r="O33" s="23" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P33" s="24" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q33" s="24" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="R33" s="22"/>
       <c r="S33" s="24" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="T33" s="24" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="U33" s="24" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="34">
+        <v>228</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="34">
       <c r="A34" s="1" t="n">
         <v>125</v>
       </c>
@@ -4805,17 +4828,16 @@
         <v>11</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="I34" s="17" t="n">
-        <f aca="false">VLOOKUP(J34,Plan1!$A$1:$B$19,2)</f>
-        <v>22</v>
+        <v>230</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K34" s="24"/>
       <c r="L34" s="15" t="n">
@@ -4823,33 +4845,33 @@
         <v>1</v>
       </c>
       <c r="M34" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N34" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O42)/365.25</f>
         <v>38.0807665982204</v>
       </c>
       <c r="O34" s="23" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="P34" s="24" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q34" s="24" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="R34" s="22"/>
       <c r="S34" s="24" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="T34" s="24" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="U34" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="35">
+        <v>145</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="35">
       <c r="A35" s="1" t="n">
         <v>16</v>
       </c>
@@ -4870,17 +4892,16 @@
         <v>12</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="I35" s="17" t="n">
-        <f aca="false">VLOOKUP(J35,Plan1!$A$1:$B$19,2)</f>
-        <v>22</v>
+        <v>236</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K35" s="24"/>
       <c r="L35" s="15" t="n">
@@ -4888,33 +4909,33 @@
         <v>1</v>
       </c>
       <c r="M35" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N35" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O45)/365.25</f>
         <v>41.7741273100616</v>
       </c>
       <c r="O35" s="23" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="P35" s="24" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q35" s="24" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="R35" s="22"/>
       <c r="S35" s="24" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="T35" s="24" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="U35" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="36">
+        <v>88</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="36">
       <c r="A36" s="1" t="n">
         <v>126</v>
       </c>
@@ -4935,17 +4956,16 @@
         <v>13</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="I36" s="17" t="n">
-        <f aca="false">VLOOKUP(J36,Plan1!$A$1:$B$19,2)</f>
-        <v>22</v>
+        <v>230</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K36" s="24"/>
       <c r="L36" s="15" t="n">
@@ -4953,31 +4973,31 @@
         <v>1</v>
       </c>
       <c r="M36" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N36" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O44)/365.25</f>
         <v>42.3408624229979</v>
       </c>
       <c r="O36" s="23" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="P36" s="24" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q36" s="24" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="R36" s="22"/>
       <c r="S36" s="24" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="T36" s="24" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="U36" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="37">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="37">
       <c r="A37" s="1" t="n">
         <v>46</v>
       </c>
@@ -4998,17 +5018,16 @@
         <v>14</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="I37" s="17" t="n">
-        <f aca="false">VLOOKUP(J37,Plan1!$A$1:$B$19,2)</f>
-        <v>22</v>
+        <v>245</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K37" s="24"/>
       <c r="L37" s="15" t="n">
@@ -5016,33 +5035,33 @@
         <v>1</v>
       </c>
       <c r="M37" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N37" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O47)/365.25</f>
         <v>43.7837097878166</v>
       </c>
       <c r="O37" s="23" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="P37" s="24" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q37" s="24" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="R37" s="22"/>
       <c r="S37" s="24" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="T37" s="24" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="U37" s="24" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="38">
+        <v>251</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="38">
       <c r="A38" s="1" t="n">
         <v>87</v>
       </c>
@@ -5063,17 +5082,16 @@
         <v>15</v>
       </c>
       <c r="G38" s="23" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="I38" s="17" t="n">
-        <f aca="false">VLOOKUP(J38,Plan1!$A$1:$B$19,2)</f>
-        <v>22</v>
+        <v>253</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K38" s="24"/>
       <c r="L38" s="15" t="n">
@@ -5081,33 +5099,33 @@
         <v>1</v>
       </c>
       <c r="M38" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N38" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O46)/365.25</f>
         <v>41.6673511293635</v>
       </c>
       <c r="O38" s="23" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P38" s="24" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q38" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R38" s="22"/>
       <c r="S38" s="24" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="T38" s="24" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="U38" s="24" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="39">
+        <v>258</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="39">
       <c r="A39" s="1" t="n">
         <v>48</v>
       </c>
@@ -5128,17 +5146,16 @@
         <v>16</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="I39" s="17" t="n">
-        <f aca="false">VLOOKUP(J39,Plan1!$A$1:$B$19,2)</f>
-        <v>22</v>
+        <v>260</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K39" s="24"/>
       <c r="L39" s="15" t="n">
@@ -5146,33 +5163,33 @@
         <v>1</v>
       </c>
       <c r="M39" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N39" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O49)/365.25</f>
         <v>43.9041752224504</v>
       </c>
       <c r="O39" s="23" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="P39" s="24" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q39" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R39" s="22"/>
       <c r="S39" s="24" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="T39" s="24" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="U39" s="24" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="40">
+        <v>265</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="40">
       <c r="A40" s="1" t="n">
         <v>112</v>
       </c>
@@ -5193,17 +5210,16 @@
         <v>17</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="I40" s="17" t="n">
-        <f aca="false">VLOOKUP(J40,Plan1!$A$1:$B$19,2)</f>
-        <v>22</v>
+        <v>267</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="J40" s="24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K40" s="24"/>
       <c r="L40" s="15" t="n">
@@ -5211,33 +5227,33 @@
         <v>1</v>
       </c>
       <c r="M40" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N40" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O48)/365.25</f>
         <v>44.6242299794661</v>
       </c>
       <c r="O40" s="23" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="P40" s="24" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q40" s="24" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="R40" s="22"/>
       <c r="S40" s="24" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="T40" s="24" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="U40" s="24" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="41">
+        <v>272</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="41">
       <c r="A41" s="1" t="n">
         <v>99</v>
       </c>
@@ -5258,17 +5274,16 @@
         <v>18</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="I41" s="17" t="n">
-        <f aca="false">VLOOKUP(J41,Plan1!$A$1:$B$19,2)</f>
-        <v>22</v>
+        <v>274</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="J41" s="24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K41" s="24"/>
       <c r="L41" s="15" t="n">
@@ -5276,33 +5291,33 @@
         <v>1</v>
       </c>
       <c r="M41" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N41" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O51)/365.25</f>
         <v>43.1375770020534</v>
       </c>
       <c r="O41" s="23" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="P41" s="24" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q41" s="24" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="R41" s="22"/>
       <c r="S41" s="24" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="T41" s="24" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="U41" s="24" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="42">
+        <v>280</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="42">
       <c r="A42" s="1" t="n">
         <v>80</v>
       </c>
@@ -5323,17 +5338,16 @@
         <v>19</v>
       </c>
       <c r="G42" s="23" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="I42" s="17" t="n">
-        <f aca="false">VLOOKUP(J42,Plan1!$A$1:$B$19,2)</f>
-        <v>22</v>
+        <v>282</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="J42" s="24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K42" s="24"/>
       <c r="L42" s="15" t="n">
@@ -5341,33 +5355,33 @@
         <v>1</v>
       </c>
       <c r="M42" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N42" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O50)/365.25</f>
         <v>41.741273100616</v>
       </c>
       <c r="O42" s="23" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="P42" s="24" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q42" s="24" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="R42" s="22"/>
       <c r="S42" s="24" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="T42" s="24" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="U42" s="24" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="43">
+        <v>287</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="43">
       <c r="A43" s="1" t="n">
         <v>63</v>
       </c>
@@ -5388,17 +5402,16 @@
         <v>20</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="I43" s="17" t="n">
-        <f aca="false">VLOOKUP(J43,Plan1!$A$1:$B$19,2)</f>
-        <v>22</v>
+        <v>289</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="J43" s="24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K43" s="24"/>
       <c r="L43" s="15" t="n">
@@ -5406,30 +5419,30 @@
         <v>1</v>
       </c>
       <c r="M43" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N43" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O52)/365.25</f>
         <v>42.5626283367556</v>
       </c>
       <c r="O43" s="23" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="P43" s="24" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q43" s="24" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="R43" s="22"/>
       <c r="S43" s="24" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="T43" s="24" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="U43" s="24" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="44">
@@ -5453,17 +5466,16 @@
         <v>1</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="I44" s="17" t="n">
-        <f aca="false">VLOOKUP(J44,Plan1!$A$1:$B$19,2)</f>
-        <v>23</v>
+        <v>297</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>298</v>
       </c>
       <c r="J44" s="24" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K44" s="24"/>
       <c r="L44" s="15" t="n">
@@ -5471,31 +5483,31 @@
         <v>1</v>
       </c>
       <c r="M44" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N44" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O23)/365.25</f>
         <v>30.0451745379877</v>
       </c>
       <c r="O44" s="21" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="P44" s="16" t="n">
         <v>155670603</v>
       </c>
       <c r="Q44" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R44" s="22"/>
       <c r="S44" s="16" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="T44" s="16" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="U44" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="45">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="45">
       <c r="A45" s="1" t="n">
         <v>32</v>
       </c>
@@ -5516,17 +5528,16 @@
         <v>2</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="I45" s="17" t="n">
-        <f aca="false">VLOOKUP(J45,Plan1!$A$1:$B$19,2)</f>
-        <v>23</v>
+        <v>304</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>298</v>
       </c>
       <c r="J45" s="24" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K45" s="24"/>
       <c r="L45" s="15" t="n">
@@ -5534,31 +5545,31 @@
         <v>1</v>
       </c>
       <c r="M45" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N45" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O24)/365.25</f>
         <v>38.5982203969884</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="P45" s="16" t="n">
         <v>631386629</v>
       </c>
       <c r="Q45" s="16" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="R45" s="22"/>
       <c r="S45" s="16" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="T45" s="16" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="U45" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="46">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="46">
       <c r="A46" s="1" t="n">
         <v>33</v>
       </c>
@@ -5579,17 +5590,16 @@
         <v>3</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="I46" s="17" t="n">
-        <f aca="false">VLOOKUP(J46,Plan1!$A$1:$B$19,2)</f>
-        <v>23</v>
+        <v>309</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>298</v>
       </c>
       <c r="J46" s="24" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K46" s="24"/>
       <c r="L46" s="15" t="n">
@@ -5597,31 +5607,31 @@
         <v>1</v>
       </c>
       <c r="M46" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N46" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O25)/365.25</f>
         <v>38.8254620123203</v>
       </c>
       <c r="O46" s="21" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="P46" s="16" t="n">
         <v>2905881623</v>
       </c>
       <c r="Q46" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R46" s="22"/>
       <c r="S46" s="16" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="T46" s="16" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="U46" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="47">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
@@ -5642,17 +5652,16 @@
         <v>4</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="I47" s="17" t="n">
-        <f aca="false">VLOOKUP(J47,Plan1!$A$1:$B$19,2)</f>
-        <v>23</v>
+        <v>314</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>298</v>
       </c>
       <c r="J47" s="24" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K47" s="24"/>
       <c r="L47" s="15" t="n">
@@ -5660,31 +5669,31 @@
         <v>1</v>
       </c>
       <c r="M47" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N47" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O27)/365.25</f>
         <v>35.151266255989</v>
       </c>
       <c r="O47" s="21" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="P47" s="16" t="n">
         <v>5393416652</v>
       </c>
       <c r="Q47" s="16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="R47" s="22"/>
       <c r="S47" s="16" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="T47" s="16" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="U47" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="48">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="48">
       <c r="A48" s="1" t="n">
         <v>34</v>
       </c>
@@ -5705,17 +5714,16 @@
         <v>5</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="I48" s="17" t="n">
-        <f aca="false">VLOOKUP(J48,Plan1!$A$1:$B$19,2)</f>
-        <v>23</v>
+        <v>319</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>298</v>
       </c>
       <c r="J48" s="24" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K48" s="24"/>
       <c r="L48" s="15" t="n">
@@ -5723,31 +5731,31 @@
         <v>1</v>
       </c>
       <c r="M48" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N48" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O26)/365.25</f>
         <v>39.378507871321</v>
       </c>
       <c r="O48" s="21" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="P48" s="16" t="n">
         <v>90257120610</v>
       </c>
       <c r="Q48" s="16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="R48" s="22"/>
       <c r="S48" s="16" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="T48" s="16" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="U48" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="49">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="49">
       <c r="A49" s="1" t="n">
         <v>69</v>
       </c>
@@ -5768,17 +5776,16 @@
         <v>6</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="I49" s="17" t="n">
-        <f aca="false">VLOOKUP(J49,Plan1!$A$1:$B$19,2)</f>
-        <v>23</v>
+        <v>324</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>298</v>
       </c>
       <c r="J49" s="24" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K49" s="24"/>
       <c r="L49" s="15" t="n">
@@ -5786,31 +5793,31 @@
         <v>1</v>
       </c>
       <c r="M49" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N49" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O28)/365.25</f>
         <v>35.6714579055441</v>
       </c>
       <c r="O49" s="21" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="P49" s="16" t="n">
         <v>92264115653</v>
       </c>
       <c r="Q49" s="16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="R49" s="22"/>
       <c r="S49" s="16" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="T49" s="16" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="U49" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="50">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="50">
       <c r="A50" s="1" t="n">
         <v>76</v>
       </c>
@@ -5831,17 +5838,16 @@
         <v>7</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="I50" s="17" t="n">
-        <f aca="false">VLOOKUP(J50,Plan1!$A$1:$B$19,2)</f>
-        <v>23</v>
+        <v>329</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>298</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K50" s="24"/>
       <c r="L50" s="15" t="n">
@@ -5849,33 +5855,33 @@
         <v>1</v>
       </c>
       <c r="M50" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N50" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O53)/365.25</f>
         <v>40.807665982204</v>
       </c>
       <c r="O50" s="23" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="P50" s="24" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q50" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R50" s="22"/>
       <c r="S50" s="24" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="T50" s="24" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="U50" s="24" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="51">
+        <v>334</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="51">
       <c r="A51" s="1" t="n">
         <v>84</v>
       </c>
@@ -5896,17 +5902,16 @@
         <v>8</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="I51" s="17" t="n">
-        <f aca="false">VLOOKUP(J51,Plan1!$A$1:$B$19,2)</f>
-        <v>23</v>
+        <v>336</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>298</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K51" s="24"/>
       <c r="L51" s="15" t="n">
@@ -5914,33 +5919,33 @@
         <v>1</v>
       </c>
       <c r="M51" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N51" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O55)/365.25</f>
         <v>43.1375770020534</v>
       </c>
       <c r="O51" s="23" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="P51" s="24" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="Q51" s="24" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="R51" s="22"/>
       <c r="S51" s="24" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="T51" s="24" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="U51" s="24" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="52">
+        <v>342</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="52">
       <c r="A52" s="1" t="n">
         <v>74</v>
       </c>
@@ -5961,17 +5966,16 @@
         <v>9</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="I52" s="17" t="n">
-        <f aca="false">VLOOKUP(J52,Plan1!$A$1:$B$19,2)</f>
-        <v>23</v>
+        <v>344</v>
+      </c>
+      <c r="I52" s="17" t="s">
+        <v>298</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K52" s="24"/>
       <c r="L52" s="15" t="n">
@@ -5979,33 +5983,33 @@
         <v>1</v>
       </c>
       <c r="M52" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N52" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O54)/365.25</f>
         <v>44.104038329911</v>
       </c>
       <c r="O52" s="23" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="P52" s="24" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Q52" s="24" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="R52" s="22"/>
       <c r="S52" s="24" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="T52" s="24" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="U52" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="53">
+        <v>350</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="53">
       <c r="A53" s="1" t="n">
         <v>24</v>
       </c>
@@ -6026,17 +6030,16 @@
         <v>10</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="I53" s="17" t="n">
-        <f aca="false">VLOOKUP(J53,Plan1!$A$1:$B$19,2)</f>
-        <v>23</v>
+        <v>352</v>
+      </c>
+      <c r="I53" s="17" t="s">
+        <v>298</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K53" s="24"/>
       <c r="L53" s="15" t="n">
@@ -6044,33 +6047,33 @@
         <v>1</v>
       </c>
       <c r="M53" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N53" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O56)/365.25</f>
         <v>42.6913073237509</v>
       </c>
       <c r="O53" s="23" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="P53" s="24" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="Q53" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R53" s="22"/>
       <c r="S53" s="24" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="T53" s="24" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="U53" s="24" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="54">
+        <v>357</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="54">
       <c r="A54" s="1" t="n">
         <v>101</v>
       </c>
@@ -6091,17 +6094,16 @@
         <v>11</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="I54" s="17" t="n">
-        <f aca="false">VLOOKUP(J54,Plan1!$A$1:$B$19,2)</f>
-        <v>23</v>
+        <v>359</v>
+      </c>
+      <c r="I54" s="17" t="s">
+        <v>298</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K54" s="24"/>
       <c r="L54" s="15" t="n">
@@ -6109,31 +6111,31 @@
         <v>1</v>
       </c>
       <c r="M54" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N54" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O57)/365.25</f>
         <v>46.280629705681</v>
       </c>
       <c r="O54" s="23" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="P54" s="24" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="Q54" s="24" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="R54" s="22"/>
       <c r="S54" s="24" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="T54" s="24" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="U54" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="55">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="55">
       <c r="A55" s="1" t="n">
         <v>85</v>
       </c>
@@ -6154,17 +6156,16 @@
         <v>12</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="I55" s="17" t="n">
-        <f aca="false">VLOOKUP(J55,Plan1!$A$1:$B$19,2)</f>
-        <v>23</v>
+        <v>365</v>
+      </c>
+      <c r="I55" s="17" t="s">
+        <v>298</v>
       </c>
       <c r="J55" s="24" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K55" s="24"/>
       <c r="L55" s="15" t="n">
@@ -6172,33 +6173,33 @@
         <v>1</v>
       </c>
       <c r="M55" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N55" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O59)/365.25</f>
         <v>46.1848049281314</v>
       </c>
       <c r="O55" s="23" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="P55" s="24" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="Q55" s="24" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="R55" s="22"/>
       <c r="S55" s="24" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="T55" s="24" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="U55" s="24" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="56">
+        <v>367</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="56">
       <c r="A56" s="1" t="n">
         <v>38</v>
       </c>
@@ -6219,17 +6220,16 @@
         <v>13</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="I56" s="17" t="n">
-        <f aca="false">VLOOKUP(J56,Plan1!$A$1:$B$19,2)</f>
-        <v>23</v>
+        <v>369</v>
+      </c>
+      <c r="I56" s="17" t="s">
+        <v>298</v>
       </c>
       <c r="J56" s="24" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="K56" s="24"/>
       <c r="L56" s="15" t="n">
@@ -6237,30 +6237,30 @@
         <v>1</v>
       </c>
       <c r="M56" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N56" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O58)/365.25</f>
         <v>48.5557837097878</v>
       </c>
       <c r="O56" s="23" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="P56" s="24" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="Q56" s="24" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="R56" s="22"/>
       <c r="S56" s="24" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="T56" s="24" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="U56" s="24" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="57">
@@ -6284,17 +6284,16 @@
         <v>1</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="I57" s="17" t="n">
-        <f aca="false">VLOOKUP(J57,Plan1!$A$1:$B$19,2)</f>
-        <v>24</v>
+        <v>377</v>
+      </c>
+      <c r="I57" s="17" t="s">
+        <v>378</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K57" s="24"/>
       <c r="L57" s="15" t="n">
@@ -6302,31 +6301,31 @@
         <v>1</v>
       </c>
       <c r="M57" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N57" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O29)/365.25</f>
         <v>37.6536618754278</v>
       </c>
       <c r="O57" s="21" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="P57" s="16" t="n">
         <v>87253712668</v>
       </c>
       <c r="Q57" s="16" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="R57" s="22"/>
       <c r="S57" s="16" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="T57" s="16" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="U57" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="58">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="58">
       <c r="A58" s="1" t="n">
         <v>42</v>
       </c>
@@ -6347,17 +6346,16 @@
         <v>2</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="I58" s="17" t="n">
-        <f aca="false">VLOOKUP(J58,Plan1!$A$1:$B$19,2)</f>
-        <v>24</v>
+        <v>385</v>
+      </c>
+      <c r="I58" s="17" t="s">
+        <v>378</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K58" s="24"/>
       <c r="L58" s="15" t="n">
@@ -6365,31 +6363,31 @@
         <v>1</v>
       </c>
       <c r="M58" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N58" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O61)/365.25</f>
         <v>49.9466119096509</v>
       </c>
       <c r="O58" s="23" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="P58" s="24" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="Q58" s="24" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="R58" s="22"/>
       <c r="S58" s="24" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="T58" s="24" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="U58" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="59">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="59">
       <c r="A59" s="1" t="n">
         <v>67</v>
       </c>
@@ -6410,17 +6408,16 @@
         <v>3</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="I59" s="17" t="n">
-        <f aca="false">VLOOKUP(J59,Plan1!$A$1:$B$19,2)</f>
-        <v>24</v>
+        <v>392</v>
+      </c>
+      <c r="I59" s="17" t="s">
+        <v>378</v>
       </c>
       <c r="J59" s="24" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K59" s="24"/>
       <c r="L59" s="15" t="n">
@@ -6428,33 +6425,33 @@
         <v>1</v>
       </c>
       <c r="M59" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N59" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O60)/365.25</f>
         <v>48.5557837097878</v>
       </c>
       <c r="O59" s="23" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="P59" s="24" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="Q59" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R59" s="22"/>
       <c r="S59" s="24" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="T59" s="24" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="U59" s="24" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="60">
+        <v>397</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="60">
       <c r="A60" s="1" t="n">
         <v>43</v>
       </c>
@@ -6475,17 +6472,16 @@
         <v>4</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="I60" s="17" t="n">
-        <f aca="false">VLOOKUP(J60,Plan1!$A$1:$B$19,2)</f>
-        <v>24</v>
+        <v>385</v>
+      </c>
+      <c r="I60" s="17" t="s">
+        <v>378</v>
       </c>
       <c r="J60" s="24" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K60" s="24"/>
       <c r="L60" s="15" t="n">
@@ -6493,31 +6489,31 @@
         <v>1</v>
       </c>
       <c r="M60" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N60" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O63)/365.25</f>
         <v>42.2067077344285</v>
       </c>
       <c r="O60" s="23" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="P60" s="24" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="Q60" s="24" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="R60" s="22"/>
       <c r="S60" s="24" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="T60" s="24" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="U60" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="61">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="61">
       <c r="A61" s="1" t="n">
         <v>98</v>
       </c>
@@ -6538,17 +6534,16 @@
         <v>5</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="I61" s="17" t="n">
-        <f aca="false">VLOOKUP(J61,Plan1!$A$1:$B$19,2)</f>
-        <v>24</v>
+        <v>401</v>
+      </c>
+      <c r="I61" s="17" t="s">
+        <v>378</v>
       </c>
       <c r="J61" s="24" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K61" s="24"/>
       <c r="L61" s="15" t="n">
@@ -6556,33 +6551,33 @@
         <v>1</v>
       </c>
       <c r="M61" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N61" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O62)/365.25</f>
         <v>28.9828884325804</v>
       </c>
       <c r="O61" s="23" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="P61" s="24" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="Q61" s="24" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="R61" s="22"/>
       <c r="S61" s="24" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="T61" s="24" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="U61" s="24" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="62">
+        <v>407</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="62">
       <c r="A62" s="1" t="n">
         <v>89</v>
       </c>
@@ -6603,17 +6598,16 @@
         <v>1</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="I62" s="17" t="n">
-        <f aca="false">VLOOKUP(J62,Plan1!$A$1:$B$19,2)</f>
-        <v>25</v>
+        <v>409</v>
+      </c>
+      <c r="I62" s="17" t="s">
+        <v>410</v>
       </c>
       <c r="J62" s="24" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="K62" s="24"/>
       <c r="L62" s="15" t="n">
@@ -6621,31 +6615,31 @@
         <v>1</v>
       </c>
       <c r="M62" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N62" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O31)/365.25</f>
         <v>38.0150581793292</v>
       </c>
       <c r="O62" s="21" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="P62" s="16" t="n">
         <v>9646945651</v>
       </c>
       <c r="Q62" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R62" s="22"/>
       <c r="S62" s="16" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="T62" s="16" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="U62" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="63">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="63">
       <c r="A63" s="1" t="n">
         <v>77</v>
       </c>
@@ -6666,17 +6660,16 @@
         <v>2</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="I63" s="17" t="n">
-        <f aca="false">VLOOKUP(J63,Plan1!$A$1:$B$19,2)</f>
-        <v>25</v>
+        <v>416</v>
+      </c>
+      <c r="I63" s="17" t="s">
+        <v>410</v>
       </c>
       <c r="J63" s="24" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="K63" s="24"/>
       <c r="L63" s="15" t="n">
@@ -6684,31 +6677,31 @@
         <v>2</v>
       </c>
       <c r="M63" s="19" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N63" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O30)/365.25</f>
         <v>35.4414784394251</v>
       </c>
       <c r="O63" s="21" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="P63" s="16" t="n">
         <v>2742287698</v>
       </c>
       <c r="Q63" s="16" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="R63" s="22"/>
       <c r="S63" s="16" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="T63" s="16" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="U63" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="64">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="64">
       <c r="A64" s="1" t="n">
         <v>35</v>
       </c>
@@ -6729,17 +6722,16 @@
         <v>3</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="I64" s="17" t="n">
-        <f aca="false">VLOOKUP(J64,Plan1!$A$1:$B$19,2)</f>
-        <v>25</v>
+        <v>422</v>
+      </c>
+      <c r="I64" s="17" t="s">
+        <v>410</v>
       </c>
       <c r="J64" s="24" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="K64" s="24"/>
       <c r="L64" s="15" t="n">
@@ -6747,31 +6739,31 @@
         <v>1</v>
       </c>
       <c r="M64" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N64" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O65)/365.25</f>
         <v>28.9828884325804</v>
       </c>
       <c r="O64" s="23" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="P64" s="24" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="Q64" s="24" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="R64" s="22"/>
       <c r="S64" s="24" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="T64" s="24" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="U64" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="19" outlineLevel="0" r="65">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="65">
       <c r="A65" s="1" t="n">
         <v>90</v>
       </c>
@@ -6792,17 +6784,16 @@
         <v>4</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="I65" s="17" t="n">
-        <f aca="false">VLOOKUP(J65,Plan1!$A$1:$B$19,2)</f>
-        <v>25</v>
+        <v>409</v>
+      </c>
+      <c r="I65" s="17" t="s">
+        <v>410</v>
       </c>
       <c r="J65" s="24" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="K65" s="24"/>
       <c r="L65" s="15" t="n">
@@ -6810,32 +6801,34 @@
         <v>1</v>
       </c>
       <c r="M65" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N65" s="20" t="n">
         <f aca="false">(Plan1!$E$5-PRO!O64)/365.25</f>
         <v>27.4496919917864</v>
       </c>
       <c r="O65" s="23" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="P65" s="24" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="Q65" s="24" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="R65" s="22"/>
       <c r="S65" s="24" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="T65" s="24" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="U65" s="24" t="s">
-        <v>422</v>
-      </c>
-    </row>
+        <v>431</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="1048575"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="1048576"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6857,7 +6850,7 @@
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="H1" view="normal" windowProtection="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" xSplit="0" ySplit="1"/>
       <selection activeCell="H1" activeCellId="0" pane="topLeft" sqref="H1"/>
-      <selection activeCell="E3" activeCellId="0" pane="bottomLeft" sqref="E3"/>
+      <selection activeCell="I59" activeCellId="0" pane="bottomLeft" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -6971,17 +6964,16 @@
         <v>1</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="I2" s="17" t="n">
-        <f aca="false">VLOOKUP(J2,Plan1!$A$1:$B$19,2)</f>
-        <v>10</v>
+        <v>433</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>434</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="K2" s="18"/>
       <c r="L2" s="15" t="n">
@@ -6989,27 +6981,27 @@
         <v>1</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" s="20" t="e">
-        <f aca="false">(Plan1!$E$5-SPORT!#REF!)/365.25</f>
+        <f aca="false">(Plan1!$E$5-sport!#ref!)/365.25</f>
         <v>#VALUE!</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="P2" s="16" t="n">
         <v>55112200600</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="R2" s="22"/>
       <c r="S2" s="16" t="n">
         <v>3135862132</v>
       </c>
       <c r="T2" s="16" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="U2" s="22"/>
     </row>
@@ -7034,17 +7026,16 @@
         <v>2</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="I3" s="17" t="n">
-        <f aca="false">VLOOKUP(J3,Plan1!$A$1:$B$19,2)</f>
-        <v>11</v>
+        <v>439</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>440</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="K3" s="18"/>
       <c r="L3" s="15" t="n">
@@ -7052,27 +7043,27 @@
         <v>1</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N3" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O3)/365.25</f>
         <v>55.9206023271732</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="P3" s="16" t="n">
         <v>55920810653</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="R3" s="22"/>
       <c r="S3" s="16" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="U3" s="22"/>
     </row>
@@ -7097,17 +7088,16 @@
         <v>1</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="I4" s="17" t="n">
-        <f aca="false">VLOOKUP(J4,Plan1!$A$1:$B$19,2)</f>
-        <v>12</v>
+        <v>447</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>448</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="15" t="n">
@@ -7115,27 +7105,27 @@
         <v>2</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N4" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O4)/365.25</f>
         <v>45.5605749486653</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="P4" s="16" t="n">
         <v>5007504670</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="R4" s="22"/>
       <c r="S4" s="16" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="U4" s="22"/>
     </row>
@@ -7160,17 +7150,16 @@
         <v>2</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="I5" s="17" t="n">
-        <f aca="false">VLOOKUP(J5,Plan1!$A$1:$B$19,2)</f>
-        <v>12</v>
+        <v>454</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>448</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="15" t="n">
@@ -7178,27 +7167,27 @@
         <v>1</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N5" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O5)/365.25</f>
         <v>43.9753593429158</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="P5" s="16" t="n">
         <v>2387116682</v>
       </c>
       <c r="Q5" s="16" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="R5" s="22"/>
       <c r="S5" s="16" t="n">
         <v>3171301719</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="U5" s="22"/>
     </row>
@@ -7223,17 +7212,16 @@
         <v>3</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="I6" s="17" t="n">
-        <f aca="false">VLOOKUP(J6,Plan1!$A$1:$B$19,2)</f>
-        <v>12</v>
+        <v>458</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>448</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="K6" s="18"/>
       <c r="L6" s="15" t="n">
@@ -7241,27 +7229,27 @@
         <v>1</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N6" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O6)/365.25</f>
         <v>40.7227926078029</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="P6" s="16" t="n">
         <v>1180957652</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="R6" s="22"/>
       <c r="S6" s="16" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="U6" s="22"/>
     </row>
@@ -7286,17 +7274,16 @@
         <v>4</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="I7" s="17" t="n">
-        <f aca="false">VLOOKUP(J7,Plan1!$A$1:$B$19,2)</f>
-        <v>12</v>
+        <v>463</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>448</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="K7" s="18"/>
       <c r="L7" s="15" t="n">
@@ -7304,27 +7291,27 @@
         <v>1</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N7" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O7)/365.25</f>
         <v>41.0130047912389</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="P7" s="16" t="n">
         <v>1183564619</v>
       </c>
       <c r="Q7" s="16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="R7" s="22"/>
       <c r="S7" s="16" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="T7" s="16" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="U7" s="22"/>
     </row>
@@ -7349,17 +7336,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="I8" s="17" t="n">
-        <f aca="false">VLOOKUP(J8,Plan1!$A$1:$B$19,2)</f>
-        <v>13</v>
+        <v>468</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>469</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="K8" s="24"/>
       <c r="L8" s="15" t="n">
@@ -7367,27 +7353,27 @@
         <v>2</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N8" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O8)/365.25</f>
         <v>35.4332648870637</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="P8" s="16" t="n">
         <v>6337134656</v>
       </c>
       <c r="Q8" s="16" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="R8" s="22"/>
       <c r="S8" s="16" t="n">
         <v>999479297</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="U8" s="22"/>
     </row>
@@ -7412,17 +7398,16 @@
         <v>2</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="I9" s="17" t="n">
-        <f aca="false">VLOOKUP(J9,Plan1!$A$1:$B$19,2)</f>
-        <v>13</v>
+        <v>475</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>469</v>
       </c>
       <c r="J9" s="24" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="K9" s="24"/>
       <c r="L9" s="15" t="n">
@@ -7430,27 +7415,27 @@
         <v>2</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N9" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O9)/365.25</f>
         <v>23.8412046543463</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="P9" s="16" t="n">
         <v>12060227607</v>
       </c>
       <c r="Q9" s="16" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="R9" s="22"/>
       <c r="S9" s="16" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="U9" s="22"/>
     </row>
@@ -7475,17 +7460,16 @@
         <v>3</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="I10" s="17" t="n">
-        <f aca="false">VLOOKUP(J10,Plan1!$A$1:$B$19,2)</f>
-        <v>13</v>
+        <v>481</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>469</v>
       </c>
       <c r="J10" s="24" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="K10" s="24"/>
       <c r="L10" s="15" t="n">
@@ -7493,27 +7477,27 @@
         <v>2</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N10" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O10)/365.25</f>
         <v>52.2436687200548</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="P10" s="16" t="n">
         <v>68376324691</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R10" s="22"/>
       <c r="S10" s="16" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="U10" s="22"/>
     </row>
@@ -7538,17 +7522,16 @@
         <v>4</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="I11" s="17" t="n">
-        <f aca="false">VLOOKUP(J11,Plan1!$A$1:$B$19,2)</f>
-        <v>13</v>
+        <v>486</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>469</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="K11" s="24"/>
       <c r="L11" s="15" t="n">
@@ -7556,27 +7539,27 @@
         <v>2</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N11" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O12)/365.25</f>
         <v>27.3675564681725</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="P11" s="16" t="n">
         <v>6716893636</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="R11" s="22"/>
       <c r="S11" s="16" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="U11" s="22"/>
     </row>
@@ -7601,17 +7584,16 @@
         <v>5</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="I12" s="17" t="n">
-        <f aca="false">VLOOKUP(J12,Plan1!$A$1:$B$19,2)</f>
-        <v>13</v>
+        <v>489</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>469</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="K12" s="24"/>
       <c r="L12" s="15" t="n">
@@ -7619,27 +7601,27 @@
         <v>2</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N12" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O11)/365.25</f>
         <v>35.1731690622861</v>
       </c>
       <c r="O12" s="21" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="P12" s="16" t="n">
         <v>9478863622</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="R12" s="22"/>
       <c r="S12" s="16" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="U12" s="22"/>
     </row>
@@ -7664,17 +7646,16 @@
         <v>6</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="I13" s="17" t="n">
-        <f aca="false">VLOOKUP(J13,Plan1!$A$1:$B$19,2)</f>
-        <v>13</v>
+        <v>494</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>469</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="K13" s="24"/>
       <c r="L13" s="15" t="n">
@@ -7682,27 +7663,27 @@
         <v>2</v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="N13" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O40)/365.25</f>
         <v>35.5783709787817</v>
       </c>
       <c r="O13" s="23" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="P13" s="24" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="Q13" s="24" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="R13" s="22"/>
       <c r="S13" s="24" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="T13" s="24" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="U13" s="24"/>
     </row>
@@ -7727,17 +7708,16 @@
         <v>7</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>488</v>
-      </c>
-      <c r="I14" s="17" t="n">
-        <f aca="false">VLOOKUP(J14,Plan1!$A$1:$B$19,2)</f>
-        <v>13</v>
+        <v>501</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>469</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="K14" s="24"/>
       <c r="L14" s="15" t="n">
@@ -7745,27 +7725,27 @@
         <v>2</v>
       </c>
       <c r="M14" s="22" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="N14" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O39)/365.25</f>
         <v>35.1622176591376</v>
       </c>
       <c r="O14" s="23" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="P14" s="24" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="Q14" s="24" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="R14" s="22"/>
       <c r="S14" s="24" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="T14" s="24" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="U14" s="24"/>
     </row>
@@ -7790,17 +7770,16 @@
         <v>8</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>495</v>
-      </c>
-      <c r="I15" s="17" t="n">
-        <f aca="false">VLOOKUP(J15,Plan1!$A$1:$B$19,2)</f>
-        <v>13</v>
+        <v>508</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>469</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="K15" s="24"/>
       <c r="L15" s="15" t="n">
@@ -7808,30 +7787,30 @@
         <v>2</v>
       </c>
       <c r="M15" s="22" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="N15" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O41)/365.25</f>
         <v>0.626967830253251</v>
       </c>
       <c r="O15" s="23" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="P15" s="24" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="Q15" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R15" s="22"/>
       <c r="S15" s="24" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="T15" s="24" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="U15" s="24" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="16">
@@ -7855,17 +7834,16 @@
         <v>9</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="I16" s="17" t="n">
-        <f aca="false">VLOOKUP(J16,Plan1!$A$1:$B$19,2)</f>
-        <v>13</v>
+        <v>515</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>469</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="K16" s="24"/>
       <c r="L16" s="15" t="n">
@@ -7873,30 +7851,30 @@
         <v>2</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="N16" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O42)/365.25</f>
         <v>36</v>
       </c>
       <c r="O16" s="23" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="P16" s="24" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="Q16" s="24" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="R16" s="22"/>
       <c r="S16" s="24" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="T16" s="24" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="U16" s="24" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="17">
@@ -7920,17 +7898,16 @@
         <v>10</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>509</v>
-      </c>
-      <c r="I17" s="17" t="n">
-        <f aca="false">VLOOKUP(J17,Plan1!$A$1:$B$19,2)</f>
-        <v>13</v>
+        <v>522</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>469</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="15" t="n">
@@ -7938,27 +7915,27 @@
         <v>1</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N17" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O44)/365.25</f>
         <v>40.2628336755647</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="Q17" s="24" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="R17" s="22"/>
       <c r="S17" s="24" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="T17" s="24" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="U17" s="24"/>
     </row>
@@ -7983,17 +7960,16 @@
         <v>11</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="I18" s="17" t="n">
-        <f aca="false">VLOOKUP(J18,Plan1!$A$1:$B$19,2)</f>
-        <v>13</v>
+        <v>530</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>469</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="K18" s="24"/>
       <c r="L18" s="15" t="n">
@@ -8001,30 +7977,30 @@
         <v>2</v>
       </c>
       <c r="M18" s="22" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="N18" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O43)/365.25</f>
         <v>39.5701574264203</v>
       </c>
       <c r="O18" s="23" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="Q18" s="24" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="R18" s="22"/>
       <c r="S18" s="24" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="T18" s="24" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="U18" s="24" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="19">
@@ -8048,17 +8024,16 @@
         <v>1</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>523</v>
-      </c>
-      <c r="I19" s="17" t="n">
-        <f aca="false">VLOOKUP(J19,Plan1!$A$1:$B$19,2)</f>
-        <v>14</v>
+        <v>536</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>537</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="K19" s="24"/>
       <c r="L19" s="15" t="n">
@@ -8066,27 +8041,27 @@
         <v>1</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N19" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O13)/365.25</f>
         <v>39.5318275154004</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="P19" s="16" t="n">
         <v>7918156684</v>
       </c>
       <c r="Q19" s="16" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="R19" s="22"/>
       <c r="S19" s="16" t="n">
         <v>31982254903</v>
       </c>
       <c r="T19" s="16" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="U19" s="22"/>
     </row>
@@ -8111,17 +8086,16 @@
         <v>2</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>528</v>
-      </c>
-      <c r="I20" s="17" t="n">
-        <f aca="false">VLOOKUP(J20,Plan1!$A$1:$B$19,2)</f>
-        <v>14</v>
+        <v>542</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>537</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="K20" s="24"/>
       <c r="L20" s="15" t="n">
@@ -8129,27 +8103,27 @@
         <v>1</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N20" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O14)/365.25</f>
         <v>36.7118412046543</v>
       </c>
       <c r="O20" s="21" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="P20" s="16" t="n">
         <v>1631419676</v>
       </c>
       <c r="Q20" s="16" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="R20" s="22"/>
       <c r="S20" s="16" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="T20" s="16" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="U20" s="22"/>
     </row>
@@ -8174,17 +8148,16 @@
         <v>3</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>533</v>
-      </c>
-      <c r="I21" s="17" t="n">
-        <f aca="false">VLOOKUP(J21,Plan1!$A$1:$B$19,2)</f>
-        <v>14</v>
+        <v>547</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>537</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="K21" s="24"/>
       <c r="L21" s="15" t="n">
@@ -8192,27 +8165,27 @@
         <v>1</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N21" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O16)/365.25</f>
         <v>42.1683778234086</v>
       </c>
       <c r="O21" s="21" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="P21" s="16" t="n">
         <v>7353452609</v>
       </c>
       <c r="Q21" s="16" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="R21" s="22"/>
       <c r="S21" s="16" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="T21" s="16" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="U21" s="22"/>
     </row>
@@ -8237,17 +8210,16 @@
         <v>4</v>
       </c>
       <c r="G22" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="J22" s="24" t="s">
         <v>538</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="I22" s="17" t="n">
-        <f aca="false">VLOOKUP(J22,Plan1!$A$1:$B$19,2)</f>
-        <v>14</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>524</v>
       </c>
       <c r="K22" s="24"/>
       <c r="L22" s="15" t="n">
@@ -8255,27 +8227,27 @@
         <v>1</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N22" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O15)/365.25</f>
         <v>38.6036960985626</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P22" s="16" t="n">
         <v>7398203624</v>
       </c>
       <c r="Q22" s="16" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="R22" s="22"/>
       <c r="S22" s="16" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="T22" s="16" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="U22" s="22"/>
     </row>
@@ -8300,17 +8272,16 @@
         <v>5</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>543</v>
-      </c>
-      <c r="I23" s="17" t="n">
-        <f aca="false">VLOOKUP(J23,Plan1!$A$1:$B$19,2)</f>
-        <v>14</v>
+        <v>557</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>537</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="K23" s="24"/>
       <c r="L23" s="15" t="n">
@@ -8318,27 +8289,27 @@
         <v>2</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N23" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O17)/365.25</f>
         <v>47.791923340178</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="P23" s="16" t="n">
         <v>9324776665</v>
       </c>
       <c r="Q23" s="16" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="R23" s="22"/>
       <c r="S23" s="16" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="T23" s="16" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="U23" s="22"/>
     </row>
@@ -8363,17 +8334,16 @@
         <v>6</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>547</v>
-      </c>
-      <c r="I24" s="17" t="n">
-        <f aca="false">VLOOKUP(J24,Plan1!$A$1:$B$19,2)</f>
-        <v>14</v>
+        <v>561</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>537</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="K24" s="24"/>
       <c r="L24" s="15" t="n">
@@ -8381,27 +8351,27 @@
         <v>1</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N24" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O18)/365.25</f>
         <v>33.4483230663929</v>
       </c>
       <c r="O24" s="21" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="P24" s="16" t="n">
         <v>10979228638</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="R24" s="22"/>
       <c r="S24" s="16" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="T24" s="16" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="U24" s="22"/>
     </row>
@@ -8426,17 +8396,16 @@
         <v>7</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>552</v>
-      </c>
-      <c r="I25" s="17" t="n">
-        <f aca="false">VLOOKUP(J25,Plan1!$A$1:$B$19,2)</f>
-        <v>14</v>
+        <v>566</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>537</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="K25" s="24"/>
       <c r="L25" s="15" t="n">
@@ -8444,27 +8413,27 @@
         <v>1</v>
       </c>
       <c r="M25" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N25" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O20)/365.25</f>
         <v>30.1190965092402</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="P25" s="16" t="n">
         <v>9307765693</v>
       </c>
       <c r="Q25" s="16" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="R25" s="22"/>
       <c r="S25" s="16" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="T25" s="16" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="U25" s="22"/>
     </row>
@@ -8489,17 +8458,16 @@
         <v>8</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>558</v>
-      </c>
-      <c r="I26" s="17" t="n">
-        <f aca="false">VLOOKUP(J26,Plan1!$A$1:$B$19,2)</f>
-        <v>14</v>
+        <v>572</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>537</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="K26" s="24"/>
       <c r="L26" s="15" t="n">
@@ -8507,27 +8475,27 @@
         <v>1</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N26" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O19)/365.25</f>
         <v>29.7686516084873</v>
       </c>
       <c r="O26" s="21" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="P26" s="16" t="n">
         <v>6503056630</v>
       </c>
       <c r="Q26" s="16" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="R26" s="22"/>
       <c r="S26" s="16" t="n">
         <v>991839196</v>
       </c>
       <c r="T26" s="16" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="U26" s="22"/>
     </row>
@@ -8552,17 +8520,16 @@
         <v>9</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>562</v>
-      </c>
-      <c r="I27" s="17" t="n">
-        <f aca="false">VLOOKUP(J27,Plan1!$A$1:$B$19,2)</f>
-        <v>14</v>
+        <v>576</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>537</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="K27" s="24"/>
       <c r="L27" s="15" t="n">
@@ -8570,27 +8537,27 @@
         <v>1</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N27" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O21)/365.25</f>
         <v>31.7015742642026</v>
       </c>
       <c r="O27" s="21" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="P27" s="16" t="n">
         <v>12608544690</v>
       </c>
       <c r="Q27" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R27" s="22"/>
       <c r="S27" s="16" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="T27" s="16" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="U27" s="22"/>
     </row>
@@ -8615,17 +8582,16 @@
         <v>10</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>567</v>
-      </c>
-      <c r="I28" s="17" t="n">
-        <f aca="false">VLOOKUP(J28,Plan1!$A$1:$B$19,2)</f>
-        <v>14</v>
+        <v>581</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>537</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="K28" s="24"/>
       <c r="L28" s="15" t="n">
@@ -8633,27 +8599,27 @@
         <v>1</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N28" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O22)/365.25</f>
         <v>28.4900752908966</v>
       </c>
       <c r="O28" s="21" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="P28" s="16" t="n">
         <v>6681976689</v>
       </c>
       <c r="Q28" s="16" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="R28" s="22"/>
       <c r="S28" s="16" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="T28" s="16" t="s">
-        <v>570</v>
+        <v>584</v>
       </c>
       <c r="U28" s="22"/>
     </row>
@@ -8678,17 +8644,16 @@
         <v>11</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>572</v>
-      </c>
-      <c r="I29" s="17" t="n">
-        <f aca="false">VLOOKUP(J29,Plan1!$A$1:$B$19,2)</f>
-        <v>14</v>
+        <v>586</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>537</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="K29" s="24"/>
       <c r="L29" s="15" t="n">
@@ -8696,27 +8661,27 @@
         <v>1</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N29" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O24)/365.25</f>
         <v>25.7878165639973</v>
       </c>
       <c r="O29" s="21" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="P29" s="16" t="n">
         <v>6915826610</v>
       </c>
       <c r="Q29" s="16" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="R29" s="22"/>
       <c r="S29" s="16" t="n">
         <v>31997284413</v>
       </c>
       <c r="T29" s="16" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="U29" s="22"/>
     </row>
@@ -8741,17 +8706,16 @@
         <v>12</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>577</v>
-      </c>
-      <c r="I30" s="17" t="n">
-        <f aca="false">VLOOKUP(J30,Plan1!$A$1:$B$19,2)</f>
-        <v>14</v>
+        <v>591</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>537</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="K30" s="24"/>
       <c r="L30" s="15" t="n">
@@ -8759,27 +8723,27 @@
         <v>1</v>
       </c>
       <c r="M30" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N30" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O23)/365.25</f>
         <v>27.1101984941821</v>
       </c>
       <c r="O30" s="21" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="P30" s="16" t="n">
         <v>8882510689</v>
       </c>
       <c r="Q30" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R30" s="22"/>
       <c r="S30" s="16" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="T30" s="16" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="U30" s="22"/>
     </row>
@@ -8804,17 +8768,16 @@
         <v>13</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>582</v>
-      </c>
-      <c r="I31" s="17" t="n">
-        <f aca="false">VLOOKUP(J31,Plan1!$A$1:$B$19,2)</f>
-        <v>14</v>
+        <v>596</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>537</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="K31" s="24"/>
       <c r="L31" s="15" t="n">
@@ -8822,27 +8785,27 @@
         <v>1</v>
       </c>
       <c r="M31" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N31" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O46)/365.25</f>
         <v>44.186173853525</v>
       </c>
       <c r="O31" s="23" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="P31" s="24" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="Q31" s="24" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="R31" s="22"/>
       <c r="S31" s="24" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="T31" s="24" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="U31" s="24"/>
     </row>
@@ -8867,17 +8830,16 @@
         <v>14</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>589</v>
-      </c>
-      <c r="I32" s="17" t="n">
-        <f aca="false">VLOOKUP(J32,Plan1!$A$1:$B$19,2)</f>
-        <v>14</v>
+        <v>603</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>537</v>
       </c>
       <c r="J32" s="24" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="K32" s="24"/>
       <c r="L32" s="15" t="n">
@@ -8885,27 +8847,27 @@
         <v>1</v>
       </c>
       <c r="M32" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N32" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O45)/365.25</f>
         <v>38.5270362765229</v>
       </c>
       <c r="O32" s="23" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="P32" s="24" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="Q32" s="24" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="R32" s="22"/>
       <c r="S32" s="24" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="T32" s="24" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="U32" s="24"/>
     </row>
@@ -8930,17 +8892,16 @@
         <v>15</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>595</v>
-      </c>
-      <c r="I33" s="17" t="n">
-        <f aca="false">VLOOKUP(J33,Plan1!$A$1:$B$19,2)</f>
-        <v>14</v>
+        <v>609</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>537</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="K33" s="24"/>
       <c r="L33" s="15" t="n">
@@ -8948,27 +8909,27 @@
         <v>1</v>
       </c>
       <c r="M33" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N33" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O47)/365.25</f>
         <v>36.5749486652977</v>
       </c>
       <c r="O33" s="23" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="P33" s="24" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="Q33" s="24" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="R33" s="22"/>
       <c r="S33" s="24" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="T33" s="24" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="U33" s="24"/>
     </row>
@@ -8993,17 +8954,16 @@
         <v>1</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>602</v>
-      </c>
-      <c r="I34" s="17" t="n">
-        <f aca="false">VLOOKUP(J34,Plan1!$A$1:$B$19,2)</f>
-        <v>15</v>
+        <v>616</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>617</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="K34" s="24"/>
       <c r="L34" s="15" t="n">
@@ -9011,27 +8971,27 @@
         <v>1</v>
       </c>
       <c r="M34" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N34" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O25)/365.25</f>
         <v>27.2553045859001</v>
       </c>
       <c r="O34" s="21" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="P34" s="16" t="n">
         <v>3772906613</v>
       </c>
       <c r="Q34" s="16" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="R34" s="22"/>
       <c r="S34" s="16" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="T34" s="16" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="U34" s="22"/>
     </row>
@@ -9056,17 +9016,16 @@
         <v>2</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>609</v>
-      </c>
-      <c r="I35" s="17" t="n">
-        <f aca="false">VLOOKUP(J35,Plan1!$A$1:$B$19,2)</f>
-        <v>15</v>
+        <v>624</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>617</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="K35" s="24"/>
       <c r="L35" s="15" t="n">
@@ -9074,27 +9033,27 @@
         <v>1</v>
       </c>
       <c r="M35" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N35" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O26)/365.25</f>
         <v>26.8774811772758</v>
       </c>
       <c r="O35" s="21" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="P35" s="16" t="n">
         <v>85635308600</v>
       </c>
       <c r="Q35" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R35" s="22"/>
       <c r="S35" s="16" t="n">
         <v>998784223</v>
       </c>
       <c r="T35" s="16" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="U35" s="22"/>
     </row>
@@ -9119,17 +9078,16 @@
         <v>3</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>613</v>
-      </c>
-      <c r="I36" s="17" t="n">
-        <f aca="false">VLOOKUP(J36,Plan1!$A$1:$B$19,2)</f>
-        <v>15</v>
+        <v>628</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>617</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="K36" s="24"/>
       <c r="L36" s="15" t="n">
@@ -9137,27 +9095,27 @@
         <v>1</v>
       </c>
       <c r="M36" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N36" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O28)/365.25</f>
         <v>33.0869267624914</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="P36" s="16" t="n">
         <v>77737555668</v>
       </c>
       <c r="Q36" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R36" s="22"/>
       <c r="S36" s="16" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="T36" s="16" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="U36" s="22"/>
     </row>
@@ -9182,17 +9140,16 @@
         <v>4</v>
       </c>
       <c r="G37" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="I37" s="17" t="s">
         <v>617</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="J37" s="24" t="s">
         <v>618</v>
-      </c>
-      <c r="I37" s="17" t="n">
-        <f aca="false">VLOOKUP(J37,Plan1!$A$1:$B$19,2)</f>
-        <v>15</v>
-      </c>
-      <c r="J37" s="24" t="s">
-        <v>603</v>
       </c>
       <c r="K37" s="24"/>
       <c r="L37" s="15" t="n">
@@ -9200,27 +9157,27 @@
         <v>1</v>
       </c>
       <c r="M37" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N37" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O27)/365.25</f>
         <v>24.0273785078713</v>
       </c>
       <c r="O37" s="21" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="P37" s="16" t="n">
         <v>954038681</v>
       </c>
       <c r="Q37" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R37" s="22"/>
       <c r="S37" s="16" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="T37" s="16" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="U37" s="22"/>
     </row>
@@ -9245,17 +9202,16 @@
         <v>5</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>623</v>
-      </c>
-      <c r="I38" s="17" t="n">
-        <f aca="false">VLOOKUP(J38,Plan1!$A$1:$B$19,2)</f>
-        <v>15</v>
+        <v>638</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>617</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="K38" s="24"/>
       <c r="L38" s="15" t="n">
@@ -9263,27 +9219,27 @@
         <v>1</v>
       </c>
       <c r="M38" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N38" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O29)/365.25</f>
         <v>34.031485284052</v>
       </c>
       <c r="O38" s="21" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="P38" s="16" t="n">
         <v>85159050604</v>
       </c>
       <c r="Q38" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R38" s="22"/>
       <c r="S38" s="16" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="T38" s="16" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="U38" s="22"/>
     </row>
@@ -9308,17 +9264,16 @@
         <v>6</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>628</v>
-      </c>
-      <c r="I39" s="17" t="n">
-        <f aca="false">VLOOKUP(J39,Plan1!$A$1:$B$19,2)</f>
-        <v>15</v>
+        <v>643</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>617</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="K39" s="24"/>
       <c r="L39" s="15" t="n">
@@ -9326,27 +9281,27 @@
         <v>1</v>
       </c>
       <c r="M39" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N39" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O30)/365.25</f>
         <v>31.2251882272416</v>
       </c>
       <c r="O39" s="21" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="P39" s="16" t="n">
         <v>5672017673</v>
       </c>
       <c r="Q39" s="16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="R39" s="22"/>
       <c r="S39" s="16" t="n">
         <v>986991226</v>
       </c>
       <c r="T39" s="16" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="U39" s="22"/>
     </row>
@@ -9371,17 +9326,16 @@
         <v>7</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>632</v>
-      </c>
-      <c r="I40" s="17" t="n">
-        <f aca="false">VLOOKUP(J40,Plan1!$A$1:$B$19,2)</f>
-        <v>15</v>
+        <v>647</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>617</v>
       </c>
       <c r="J40" s="24" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="K40" s="24"/>
       <c r="L40" s="15" t="n">
@@ -9389,27 +9343,27 @@
         <v>1</v>
       </c>
       <c r="M40" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N40" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O32)/365.25</f>
         <v>30.4120465434634</v>
       </c>
       <c r="O40" s="21" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="P40" s="16" t="n">
         <v>5230030640</v>
       </c>
       <c r="Q40" s="16" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="R40" s="22"/>
       <c r="S40" s="16" t="n">
         <v>998040306</v>
       </c>
       <c r="T40" s="16" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="U40" s="22"/>
     </row>
@@ -9434,17 +9388,16 @@
         <v>8</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>637</v>
-      </c>
-      <c r="I41" s="17" t="n">
-        <f aca="false">VLOOKUP(J41,Plan1!$A$1:$B$19,2)</f>
-        <v>15</v>
+        <v>652</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>617</v>
       </c>
       <c r="J41" s="24" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="K41" s="24"/>
       <c r="L41" s="15" t="n">
@@ -9452,27 +9405,27 @@
         <v>1</v>
       </c>
       <c r="M41" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N41" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O31)/365.25</f>
         <v>30.1081451060917</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="P41" s="16" t="n">
         <v>3971940641</v>
       </c>
       <c r="Q41" s="16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="R41" s="22"/>
       <c r="S41" s="16" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="T41" s="16" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="U41" s="22"/>
     </row>
@@ -9497,17 +9450,16 @@
         <v>9</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>642</v>
-      </c>
-      <c r="I42" s="17" t="n">
-        <f aca="false">VLOOKUP(J42,Plan1!$A$1:$B$19,2)</f>
-        <v>15</v>
+        <v>657</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>617</v>
       </c>
       <c r="J42" s="24" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="K42" s="24"/>
       <c r="L42" s="15" t="n">
@@ -9515,27 +9467,27 @@
         <v>1</v>
       </c>
       <c r="M42" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N42" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O33)/365.25</f>
         <v>28.933607118412</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="P42" s="16" t="n">
         <v>5348335606</v>
       </c>
       <c r="Q42" s="16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="R42" s="22"/>
       <c r="S42" s="16" t="n">
         <v>31971732764</v>
       </c>
       <c r="T42" s="16" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="U42" s="22"/>
     </row>
@@ -9560,17 +9512,16 @@
         <v>10</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>646</v>
-      </c>
-      <c r="I43" s="17" t="n">
-        <f aca="false">VLOOKUP(J43,Plan1!$A$1:$B$19,2)</f>
-        <v>15</v>
+        <v>661</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>617</v>
       </c>
       <c r="J43" s="24" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="K43" s="24"/>
       <c r="L43" s="15" t="n">
@@ -9578,27 +9529,27 @@
         <v>1</v>
       </c>
       <c r="M43" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N43" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O34)/365.25</f>
         <v>37.9958932238193</v>
       </c>
       <c r="O43" s="21" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="P43" s="16" t="n">
         <v>4350651659</v>
       </c>
       <c r="Q43" s="16" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="R43" s="22"/>
       <c r="S43" s="16" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="T43" s="16" t="s">
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="U43" s="22"/>
     </row>
@@ -9623,17 +9574,16 @@
         <v>11</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>651</v>
+        <v>666</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>652</v>
-      </c>
-      <c r="I44" s="17" t="n">
-        <f aca="false">VLOOKUP(J44,Plan1!$A$1:$B$19,2)</f>
-        <v>15</v>
+        <v>667</v>
+      </c>
+      <c r="I44" s="17" t="s">
+        <v>617</v>
       </c>
       <c r="J44" s="24" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="K44" s="24"/>
       <c r="L44" s="15" t="n">
@@ -9641,27 +9591,27 @@
         <v>1</v>
       </c>
       <c r="M44" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N44" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O35)/365.25</f>
         <v>43.9206023271732</v>
       </c>
       <c r="O44" s="21" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="P44" s="16" t="n">
         <v>2803383683</v>
       </c>
       <c r="Q44" s="16" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="R44" s="22"/>
       <c r="S44" s="16" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="T44" s="16" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="U44" s="22"/>
     </row>
@@ -9686,17 +9636,16 @@
         <v>12</v>
       </c>
       <c r="G45" s="23" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>658</v>
-      </c>
-      <c r="I45" s="17" t="n">
-        <f aca="false">VLOOKUP(J45,Plan1!$A$1:$B$19,2)</f>
-        <v>15</v>
+        <v>673</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>617</v>
       </c>
       <c r="J45" s="24" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="K45" s="24"/>
       <c r="L45" s="15" t="n">
@@ -9704,30 +9653,30 @@
         <v>1</v>
       </c>
       <c r="M45" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N45" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O48)/365.25</f>
         <v>35.6084873374401</v>
       </c>
       <c r="O45" s="23" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="P45" s="24" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="Q45" s="24" t="s">
-        <v>661</v>
+        <v>676</v>
       </c>
       <c r="R45" s="22"/>
       <c r="S45" s="24" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
       <c r="T45" s="24" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="U45" s="24" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="46">
@@ -9751,17 +9700,16 @@
         <v>13</v>
       </c>
       <c r="G46" s="23" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>666</v>
-      </c>
-      <c r="I46" s="17" t="n">
-        <f aca="false">VLOOKUP(J46,Plan1!$A$1:$B$19,2)</f>
-        <v>15</v>
+        <v>681</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>617</v>
       </c>
       <c r="J46" s="24" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="K46" s="24"/>
       <c r="L46" s="15" t="n">
@@ -9769,30 +9717,30 @@
         <v>1</v>
       </c>
       <c r="M46" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N46" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O50)/365.25</f>
         <v>41.242984257358</v>
       </c>
       <c r="O46" s="23" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="P46" s="24" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="Q46" s="24" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="R46" s="22"/>
       <c r="S46" s="24" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
       <c r="T46" s="24" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
       <c r="U46" s="24" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="47">
@@ -9816,17 +9764,16 @@
         <v>14</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>673</v>
-      </c>
-      <c r="I47" s="17" t="n">
-        <f aca="false">VLOOKUP(J47,Plan1!$A$1:$B$19,2)</f>
-        <v>15</v>
+        <v>688</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>617</v>
       </c>
       <c r="J47" s="24" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="K47" s="24"/>
       <c r="L47" s="15" t="n">
@@ -9834,30 +9781,30 @@
         <v>1</v>
       </c>
       <c r="M47" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N47" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O49)/365.25</f>
         <v>35.9014373716632</v>
       </c>
       <c r="O47" s="23" t="s">
-        <v>674</v>
+        <v>689</v>
       </c>
       <c r="P47" s="24" t="s">
-        <v>675</v>
+        <v>690</v>
       </c>
       <c r="Q47" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R47" s="22"/>
       <c r="S47" s="24" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
       <c r="T47" s="24" t="s">
-        <v>677</v>
+        <v>692</v>
       </c>
       <c r="U47" s="24" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="48">
@@ -9881,17 +9828,16 @@
         <v>15</v>
       </c>
       <c r="G48" s="23" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>680</v>
-      </c>
-      <c r="I48" s="17" t="n">
-        <f aca="false">VLOOKUP(J48,Plan1!$A$1:$B$19,2)</f>
-        <v>15</v>
+        <v>695</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>617</v>
       </c>
       <c r="J48" s="24" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="K48" s="24"/>
       <c r="L48" s="15" t="n">
@@ -9899,30 +9845,30 @@
         <v>1</v>
       </c>
       <c r="M48" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N48" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O52)/365.25</f>
         <v>35.6084873374401</v>
       </c>
       <c r="O48" s="23" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="P48" s="24" t="s">
-        <v>682</v>
+        <v>697</v>
       </c>
       <c r="Q48" s="24" t="s">
-        <v>683</v>
+        <v>698</v>
       </c>
       <c r="R48" s="22"/>
       <c r="S48" s="24" t="s">
-        <v>684</v>
+        <v>699</v>
       </c>
       <c r="T48" s="24" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="U48" s="24" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="49">
@@ -9946,17 +9892,16 @@
         <v>16</v>
       </c>
       <c r="G49" s="23" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>688</v>
-      </c>
-      <c r="I49" s="17" t="n">
-        <f aca="false">VLOOKUP(J49,Plan1!$A$1:$B$19,2)</f>
-        <v>15</v>
+        <v>703</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>617</v>
       </c>
       <c r="J49" s="24" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="K49" s="24"/>
       <c r="L49" s="15" t="n">
@@ -9964,30 +9909,30 @@
         <v>1</v>
       </c>
       <c r="M49" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N49" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O51)/365.25</f>
         <v>40.4845995893224</v>
       </c>
       <c r="O49" s="23" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="P49" s="24" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
       <c r="Q49" s="24" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
       <c r="R49" s="22"/>
       <c r="S49" s="24" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="T49" s="24" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="U49" s="24" t="s">
-        <v>694</v>
+        <v>709</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="50">
@@ -10011,17 +9956,16 @@
         <v>17</v>
       </c>
       <c r="G50" s="23" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>696</v>
-      </c>
-      <c r="I50" s="17" t="n">
-        <f aca="false">VLOOKUP(J50,Plan1!$A$1:$B$19,2)</f>
-        <v>15</v>
+        <v>711</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>617</v>
       </c>
       <c r="J50" s="24" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="K50" s="24"/>
       <c r="L50" s="15" t="n">
@@ -10029,30 +9973,30 @@
         <v>1</v>
       </c>
       <c r="M50" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N50" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O54)/365.25</f>
         <v>41.7330595482546</v>
       </c>
       <c r="O50" s="23" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
       <c r="P50" s="24" t="s">
-        <v>698</v>
+        <v>713</v>
       </c>
       <c r="Q50" s="24" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="R50" s="22"/>
       <c r="S50" s="24" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="T50" s="24" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="U50" s="24" t="s">
-        <v>702</v>
+        <v>717</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="51">
@@ -10076,17 +10020,16 @@
         <v>18</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>704</v>
-      </c>
-      <c r="I51" s="17" t="n">
-        <f aca="false">VLOOKUP(J51,Plan1!$A$1:$B$19,2)</f>
-        <v>15</v>
+        <v>719</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>617</v>
       </c>
       <c r="J51" s="24" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="K51" s="24"/>
       <c r="L51" s="15" t="n">
@@ -10094,27 +10037,27 @@
         <v>1</v>
       </c>
       <c r="M51" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N51" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O53)/365.25</f>
         <v>38.3381245722108</v>
       </c>
       <c r="O51" s="23" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="P51" s="24" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
       <c r="Q51" s="24" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="R51" s="22"/>
       <c r="S51" s="24" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
       <c r="T51" s="24" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="U51" s="24"/>
     </row>
@@ -10139,17 +10082,16 @@
         <v>19</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>711</v>
-      </c>
-      <c r="I52" s="17" t="n">
-        <f aca="false">VLOOKUP(J52,Plan1!$A$1:$B$19,2)</f>
-        <v>15</v>
+        <v>726</v>
+      </c>
+      <c r="I52" s="17" t="s">
+        <v>617</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="K52" s="24"/>
       <c r="L52" s="15" t="n">
@@ -10157,30 +10099,30 @@
         <v>1</v>
       </c>
       <c r="M52" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N52" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O56)/365.25</f>
         <v>33.1444216290212</v>
       </c>
       <c r="O52" s="23" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="P52" s="24" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
       <c r="Q52" s="24" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="R52" s="22"/>
       <c r="S52" s="24" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
       <c r="T52" s="24" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
       <c r="U52" s="24" t="s">
-        <v>716</v>
+        <v>731</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="53">
@@ -10204,17 +10146,16 @@
         <v>20</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>718</v>
-      </c>
-      <c r="I53" s="17" t="n">
-        <f aca="false">VLOOKUP(J53,Plan1!$A$1:$B$19,2)</f>
-        <v>15</v>
+        <v>733</v>
+      </c>
+      <c r="I53" s="17" t="s">
+        <v>617</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="K53" s="24"/>
       <c r="L53" s="15" t="n">
@@ -10222,30 +10163,30 @@
         <v>1</v>
       </c>
       <c r="M53" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N53" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O55)/365.25</f>
         <v>32.0574948665298</v>
       </c>
       <c r="O53" s="23" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
       <c r="P53" s="24" t="s">
-        <v>720</v>
+        <v>735</v>
       </c>
       <c r="Q53" s="24" t="s">
-        <v>721</v>
+        <v>736</v>
       </c>
       <c r="R53" s="22"/>
       <c r="S53" s="24" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="T53" s="24" t="s">
-        <v>723</v>
+        <v>738</v>
       </c>
       <c r="U53" s="24" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.65" outlineLevel="0" r="54">
@@ -10269,17 +10210,16 @@
         <v>1</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>726</v>
-      </c>
-      <c r="I54" s="17" t="n">
-        <f aca="false">VLOOKUP(J54,Plan1!$A$1:$B$19,2)</f>
-        <v>16</v>
+        <v>741</v>
+      </c>
+      <c r="I54" s="17" t="s">
+        <v>742</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="K54" s="24"/>
       <c r="L54" s="15" t="n">
@@ -10287,27 +10227,27 @@
         <v>1</v>
       </c>
       <c r="M54" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N54" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O36)/365.25</f>
         <v>49.8151950718686</v>
       </c>
       <c r="O54" s="21" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="P54" s="16" t="n">
         <v>3488898601</v>
       </c>
       <c r="Q54" s="16" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
       <c r="R54" s="22"/>
       <c r="S54" s="16" t="n">
         <v>3121036000</v>
       </c>
       <c r="T54" s="16" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="U54" s="22"/>
     </row>
@@ -10332,17 +10272,16 @@
         <v>2</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>732</v>
-      </c>
-      <c r="I55" s="17" t="n">
-        <f aca="false">VLOOKUP(J55,Plan1!$A$1:$B$19,2)</f>
-        <v>16</v>
+        <v>748</v>
+      </c>
+      <c r="I55" s="17" t="s">
+        <v>742</v>
       </c>
       <c r="J55" s="24" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="K55" s="24"/>
       <c r="L55" s="15" t="n">
@@ -10350,27 +10289,27 @@
         <v>1</v>
       </c>
       <c r="M55" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N55" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O37)/365.25</f>
         <v>42.1984941820671</v>
       </c>
       <c r="O55" s="21" t="s">
-        <v>733</v>
+        <v>749</v>
       </c>
       <c r="P55" s="16" t="n">
         <v>7055486602</v>
       </c>
       <c r="Q55" s="16" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="R55" s="22"/>
       <c r="S55" s="16" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
       <c r="T55" s="16" t="s">
-        <v>735</v>
+        <v>751</v>
       </c>
       <c r="U55" s="22"/>
     </row>
@@ -10395,17 +10334,16 @@
         <v>3</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>737</v>
-      </c>
-      <c r="I56" s="17" t="n">
-        <f aca="false">VLOOKUP(J56,Plan1!$A$1:$B$19,2)</f>
-        <v>16</v>
+        <v>753</v>
+      </c>
+      <c r="I56" s="17" t="s">
+        <v>742</v>
       </c>
       <c r="J56" s="24" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="K56" s="24"/>
       <c r="L56" s="15" t="n">
@@ -10413,27 +10351,27 @@
         <v>1</v>
       </c>
       <c r="M56" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N56" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O38)/365.25</f>
         <v>46.8364134154689</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
       <c r="P56" s="16" t="n">
         <v>6754338601</v>
       </c>
       <c r="Q56" s="16" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="R56" s="22"/>
       <c r="S56" s="16" t="n">
         <v>987633845</v>
       </c>
       <c r="T56" s="16" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="U56" s="22"/>
     </row>
@@ -10458,17 +10396,16 @@
         <v>4</v>
       </c>
       <c r="G57" s="23" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>741</v>
-      </c>
-      <c r="I57" s="17" t="n">
-        <f aca="false">VLOOKUP(J57,Plan1!$A$1:$B$19,2)</f>
-        <v>16</v>
+        <v>757</v>
+      </c>
+      <c r="I57" s="17" t="s">
+        <v>742</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="K57" s="24"/>
       <c r="L57" s="15" t="n">
@@ -10476,27 +10413,27 @@
         <v>1</v>
       </c>
       <c r="M57" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N57" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O57)/365.25</f>
         <v>41.7330595482546</v>
       </c>
       <c r="O57" s="23" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="P57" s="24" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="Q57" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R57" s="22"/>
       <c r="S57" s="24" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="T57" s="24" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="U57" s="24"/>
     </row>
@@ -10521,17 +10458,16 @@
         <v>5</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>745</v>
-      </c>
-      <c r="I58" s="17" t="n">
-        <f aca="false">VLOOKUP(J58,Plan1!$A$1:$B$19,2)</f>
-        <v>16</v>
+        <v>761</v>
+      </c>
+      <c r="I58" s="17" t="s">
+        <v>742</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="K58" s="24"/>
       <c r="L58" s="15" t="n">
@@ -10539,27 +10475,27 @@
         <v>1</v>
       </c>
       <c r="M58" s="22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N58" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O58)/365.25</f>
         <v>34.5982203969884</v>
       </c>
       <c r="O58" s="23" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="P58" s="24" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
       <c r="Q58" s="24" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="R58" s="22"/>
       <c r="S58" s="24" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="T58" s="24" t="s">
-        <v>750</v>
+        <v>766</v>
       </c>
       <c r="U58" s="24"/>
     </row>
@@ -10581,17 +10517,16 @@
         <v>1</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>751</v>
+        <v>767</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>752</v>
-      </c>
-      <c r="I59" s="17" t="n">
-        <f aca="false">VLOOKUP(J59,Plan1!$A$1:$B$19,2)</f>
-        <v>28</v>
+        <v>768</v>
+      </c>
+      <c r="I59" s="17" t="s">
+        <v>769</v>
       </c>
       <c r="J59" s="18" t="s">
-        <v>753</v>
+        <v>770</v>
       </c>
       <c r="K59" s="18"/>
       <c r="L59" s="15" t="n">
@@ -10599,27 +10534,27 @@
         <v>2</v>
       </c>
       <c r="M59" s="19" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N59" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O60)/365.25</f>
         <v>41.8754277891855</v>
       </c>
       <c r="O59" s="21" t="s">
-        <v>754</v>
+        <v>771</v>
       </c>
       <c r="P59" s="16" t="n">
         <v>7650447650</v>
       </c>
       <c r="Q59" s="16" t="s">
-        <v>755</v>
+        <v>772</v>
       </c>
       <c r="R59" s="22"/>
       <c r="S59" s="16" t="s">
-        <v>756</v>
+        <v>773</v>
       </c>
       <c r="T59" s="16" t="s">
-        <v>757</v>
+        <v>774</v>
       </c>
       <c r="U59" s="22"/>
     </row>
@@ -10641,17 +10576,16 @@
         <v>2</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>758</v>
+        <v>775</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>759</v>
-      </c>
-      <c r="I60" s="17" t="n">
-        <f aca="false">VLOOKUP(J60,Plan1!$A$1:$B$19,2)</f>
-        <v>28</v>
+        <v>776</v>
+      </c>
+      <c r="I60" s="17" t="s">
+        <v>769</v>
       </c>
       <c r="J60" s="18" t="s">
-        <v>753</v>
+        <v>770</v>
       </c>
       <c r="K60" s="18"/>
       <c r="L60" s="15" t="n">
@@ -10659,27 +10593,27 @@
         <v>1</v>
       </c>
       <c r="M60" s="19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N60" s="20" t="n">
         <f aca="false">(Plan1!$E$5-SPORT!O59)/365.25</f>
         <v>30.6255989048597</v>
       </c>
       <c r="O60" s="21" t="s">
-        <v>760</v>
+        <v>777</v>
       </c>
       <c r="P60" s="16" t="n">
         <v>128216670</v>
       </c>
       <c r="Q60" s="16" t="s">
-        <v>755</v>
+        <v>772</v>
       </c>
       <c r="R60" s="22"/>
       <c r="S60" s="16" t="s">
-        <v>761</v>
+        <v>778</v>
       </c>
       <c r="T60" s="16" t="s">
-        <v>762</v>
+        <v>779</v>
       </c>
       <c r="U60" s="22"/>
     </row>
@@ -10714,13 +10648,13 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="1">
       <c r="A1" s="27" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="B1" s="6" t="n">
         <v>10</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="6" t="n">
         <v>1</v>
@@ -10728,13 +10662,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="2">
       <c r="A2" s="18" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>2</v>
@@ -10742,7 +10676,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="3">
       <c r="A3" s="18" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>12</v>
@@ -10750,7 +10684,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="4">
       <c r="A4" s="24" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="B4" s="6" t="n">
         <v>13</v>
@@ -10758,7 +10692,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="5">
       <c r="A5" s="24" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="B5" s="6" t="n">
         <v>14</v>
@@ -10769,7 +10703,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="6">
       <c r="A6" s="24" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="B6" s="6" t="n">
         <v>15</v>
@@ -10777,7 +10711,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="7">
       <c r="A7" s="24" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="B7" s="6" t="n">
         <v>16</v>
@@ -10785,7 +10719,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="8">
       <c r="A8" s="24" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="B8" s="6" t="n">
         <v>17</v>
@@ -10793,7 +10727,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="9">
       <c r="A9" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6" t="n">
         <v>18</v>
@@ -10801,7 +10735,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="10">
       <c r="A10" s="18" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B10" s="6" t="n">
         <v>19</v>
@@ -10809,7 +10743,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="11">
       <c r="A11" s="18" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B11" s="6" t="n">
         <v>20</v>
@@ -10817,7 +10751,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="12">
       <c r="A12" s="24" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B12" s="6" t="n">
         <v>21</v>
@@ -10825,7 +10759,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="13">
       <c r="A13" s="24" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B13" s="6" t="n">
         <v>22</v>
@@ -10833,7 +10767,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="14">
       <c r="A14" s="24" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B14" s="6" t="n">
         <v>23</v>
@@ -10841,7 +10775,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="15">
       <c r="A15" s="24" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B15" s="6" t="n">
         <v>24</v>
@@ -10849,7 +10783,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="16">
       <c r="A16" s="24" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B16" s="6" t="n">
         <v>25</v>
@@ -10857,7 +10791,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="17">
       <c r="A17" s="24" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B17" s="6" t="n">
         <v>26</v>
@@ -10865,7 +10799,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="18">
       <c r="A18" s="24" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B18" s="6" t="n">
         <v>27</v>
@@ -10873,7 +10807,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="19">
       <c r="A19" s="18" t="s">
-        <v>753</v>
+        <v>770</v>
       </c>
       <c r="B19" s="6" t="n">
         <v>28</v>
